--- a/bootstrap_method.xlsx
+++ b/bootstrap_method.xlsx
@@ -191,6 +191,428 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Glide Regression: V/Δt vs V⁴</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>Glide data</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <trendline>
+            <trendlineType val="linear"/>
+            <dispRSqr val="1"/>
+            <dispEq val="1"/>
+          </trendline>
+          <xVal>
+            <numRef>
+              <f>'Flight Tests → CD0, e'!$J$31:$J$43</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Flight Tests → CD0, e'!$I$31:$I$43</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>V⁴ (fps⁴)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>V/Δt (fps/sec)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Glide Endurance: KCAS × Δt vs KCAS</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>Glide data</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Flight Tests → CD0, e'!$E$31:$E$43</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Flight Tests → CD0, e'!$H$31:$H$43</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>KCAS</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>KCAS × Δt</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Climb Rate vs Airspeed</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>Climb data</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Flight Tests → CD0, e'!$E$63:$E$75</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Flight Tests → CD0, e'!$G$63:$G$75</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>KCAS</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Rate of Climb (ft/min)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>85</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6480000" cy="4320000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>101</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6480000" cy="4320000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>117</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6480000" cy="4320000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1041,7 +1463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1807,9 +2229,10 @@
         <f>B49*SQRT($B$19)*0.5924838</f>
         <v/>
       </c>
-      <c r="C50">
-        <f> V_bg_TAS × √σ × 0.5924838</f>
-        <v/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>V_bg_TAS × √σ × 0.5924838</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -1829,9 +2252,10 @@
         <f>B47*2*B46*$B$18/($B$20*$B$5)</f>
         <v/>
       </c>
-      <c r="C53">
-        <f> a × 2·W·ΔH / (ρ·S)</f>
-        <v/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>a × 2·W·ΔH / (ρ·S)</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -1844,9 +2268,10 @@
         <f>2*B46/(B48*$B$20*$B$5*PI()*$B$7*$B$18)</f>
         <v/>
       </c>
-      <c r="C54">
-        <f> 2·W / (b·ρ·S·π·A·ΔH)</f>
-        <v/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2·W / (b·ρ·S·π·A·ΔH)</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -1859,9 +2284,10 @@
         <f>1/(2*SQRT(B53/(PI()*$B$7*B54)))</f>
         <v/>
       </c>
-      <c r="C55">
-        <f> 1 / (2·√(CD0/(π·A·e)))</f>
-        <v/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1 / (2·√(CD0/(π·A·e)))</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -1952,6 +2378,11 @@
       <c r="I63" s="3" t="inlineStr">
         <is>
           <t>% Power</t>
+        </is>
+      </c>
+      <c r="J63" s="3" t="inlineStr">
+        <is>
+          <t>Climb Angle (°)</t>
         </is>
       </c>
     </row>
@@ -1976,6 +2407,10 @@
       </c>
       <c r="H64" s="4" t="n"/>
       <c r="I64" s="4" t="n"/>
+      <c r="J64" s="6">
+        <f>IFERROR(DEGREES(ATAN(G64/(((E64/SQRT($B$19))/0.5924838)*60))),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="8" t="n">
@@ -1998,6 +2433,10 @@
       </c>
       <c r="H65" s="4" t="n"/>
       <c r="I65" s="4" t="n"/>
+      <c r="J65" s="6">
+        <f>IFERROR(DEGREES(ATAN(G65/(((E65/SQRT($B$19))/0.5924838)*60))),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="8" t="n">
@@ -2020,6 +2459,10 @@
       </c>
       <c r="H66" s="4" t="n"/>
       <c r="I66" s="4" t="n"/>
+      <c r="J66" s="6">
+        <f>IFERROR(DEGREES(ATAN(G66/(((E66/SQRT($B$19))/0.5924838)*60))),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="8" t="n">
@@ -2042,6 +2485,10 @@
       </c>
       <c r="H67" s="4" t="n"/>
       <c r="I67" s="4" t="n"/>
+      <c r="J67" s="6">
+        <f>IFERROR(DEGREES(ATAN(G67/(((E67/SQRT($B$19))/0.5924838)*60))),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="8" t="n">
@@ -2064,6 +2511,10 @@
       </c>
       <c r="H68" s="4" t="n"/>
       <c r="I68" s="4" t="n"/>
+      <c r="J68" s="6">
+        <f>IFERROR(DEGREES(ATAN(G68/(((E68/SQRT($B$19))/0.5924838)*60))),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="8" t="n">
@@ -2086,6 +2537,10 @@
       </c>
       <c r="H69" s="4" t="n"/>
       <c r="I69" s="4" t="n"/>
+      <c r="J69" s="6">
+        <f>IFERROR(DEGREES(ATAN(G69/(((E69/SQRT($B$19))/0.5924838)*60))),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="8" t="n">
@@ -2108,6 +2563,10 @@
       </c>
       <c r="H70" s="4" t="n"/>
       <c r="I70" s="4" t="n"/>
+      <c r="J70" s="6">
+        <f>IFERROR(DEGREES(ATAN(G70/(((E70/SQRT($B$19))/0.5924838)*60))),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="8" t="n">
@@ -2130,6 +2589,10 @@
       </c>
       <c r="H71" s="4" t="n"/>
       <c r="I71" s="4" t="n"/>
+      <c r="J71" s="6">
+        <f>IFERROR(DEGREES(ATAN(G71/(((E71/SQRT($B$19))/0.5924838)*60))),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="8" t="n">
@@ -2152,6 +2615,10 @@
       </c>
       <c r="H72" s="4" t="n"/>
       <c r="I72" s="4" t="n"/>
+      <c r="J72" s="6">
+        <f>IFERROR(DEGREES(ATAN(G72/(((E72/SQRT($B$19))/0.5924838)*60))),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="8" t="n">
@@ -2174,6 +2641,10 @@
       </c>
       <c r="H73" s="4" t="n"/>
       <c r="I73" s="4" t="n"/>
+      <c r="J73" s="6">
+        <f>IFERROR(DEGREES(ATAN(G73/(((E73/SQRT($B$19))/0.5924838)*60))),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="8" t="n">
@@ -2196,6 +2667,10 @@
       </c>
       <c r="H74" s="4" t="n"/>
       <c r="I74" s="4" t="n"/>
+      <c r="J74" s="6">
+        <f>IFERROR(DEGREES(ATAN(G74/(((E74/SQRT($B$19))/0.5924838)*60))),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="8" t="n">
@@ -2218,6 +2693,103 @@
       </c>
       <c r="H75" s="4" t="n"/>
       <c r="I75" s="4" t="n"/>
+      <c r="J75" s="6">
+        <f>IFERROR(DEGREES(ATAN(G75/(((E75/SQRT($B$19))/0.5924838)*60))),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>Climb Test Analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>Best ROC speed (Vy):</t>
+        </is>
+      </c>
+      <c r="B78" s="16">
+        <f>IFERROR(INDEX(E64:E75,MATCH(MAX(G64:G75),G64:G75,0)),"")</f>
+        <v/>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>KCAS</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>KCAS at max ROC</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>Max ROC:</t>
+        </is>
+      </c>
+      <c r="B79" s="16">
+        <f>IFERROR(MAX(G64:G75),"")</f>
+        <v/>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>ft/min</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t>Best climb angle speed (Vx):</t>
+        </is>
+      </c>
+      <c r="B80" s="16">
+        <f>IFERROR(INDEX(E64:E75,MATCH(MAX(J64:J75),J64:J75,0)),"")</f>
+        <v/>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>KCAS</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>KCAS at max climb angle</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="inlineStr">
+        <is>
+          <t>Max climb angle:</t>
+        </is>
+      </c>
+      <c r="B81" s="10">
+        <f>IFERROR(MAX(J64:J75),"")</f>
+        <v/>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Compare these against bootstrap predictions:</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Run the Clojure calculator at the same W, h, RPM, % power</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2225,6 +2797,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2513,9 +3086,10 @@
         <v/>
       </c>
       <c r="C18" s="8" t="inlineStr"/>
-      <c r="D18" s="8">
-        <f> B² / S</f>
-        <v/>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>B² / S</t>
+        </is>
       </c>
     </row>
     <row r="20">

--- a/bootstrap_method.xlsx
+++ b/bootstrap_method.xlsx
@@ -1252,7 +1252,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1413,67 +1413,79 @@
     <row r="30" ht="30" customHeight="1">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>John T. Lowry, Performance of Light Aircraft (AIAA, 1999) — see PerfOfLightAircraft.pdf in this project's repository.</t>
+          <t>John T. Lowry, Performance of Light Aircraft (AIAA, 1999):</t>
         </is>
       </c>
     </row>
     <row r="31" ht="30" customHeight="1">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>AvWeb: "The Bootstrap Approach to Aircraft Performance — Part 1: Fixed-Pitch Propeller Airplanes"</t>
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  https://github.com/mentat-collective/BootstrapMethod/blob/main/PerfOfLightAircraft.pdf</t>
         </is>
       </c>
     </row>
     <row r="32" ht="30" customHeight="1">
-      <c r="A32" s="6" t="inlineStr">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>AvWeb: "The Bootstrap Approach — Part 1: Fixed-Pitch Propeller Airplanes":</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="30" customHeight="1">
+      <c r="A33" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">  https://avweb.com/features_old/the-bootstrap-approach-to-aircraft-performancepart-one-fixed-pitch-propeller-airplanes/</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="30" customHeight="1">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>AvWeb: "The Bootstrap Approach to Aircraft Performance — Part 2: Constant-Speed Propeller Airplanes"</t>
-        </is>
-      </c>
-    </row>
     <row r="34" ht="30" customHeight="1">
-      <c r="A34" s="6" t="inlineStr">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>AvWeb: "The Bootstrap Approach — Part 2: Constant-Speed Propeller Airplanes":</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="30" customHeight="1">
+      <c r="A35" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">  https://avweb.com/features_old/the-bootstrap-approach-to-aircraft-performancepart-two-constant-speed-propeller-airplanes/</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>Color Key</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="7" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="7" t="inlineStr">
         <is>
           <t>Yellow cells = your inputs (replace with your values)</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="8" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="8" t="inlineStr">
         <is>
           <t>Blue cells = computed values (do not edit)</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="9" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="9" t="inlineStr">
         <is>
           <t>Green cells = key results or cross-tab links</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A31" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A33" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A35" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/bootstrap_method.xlsx
+++ b/bootstrap_method.xlsx
@@ -270,18 +270,26 @@
             </spPr>
           </marker>
           <trendline>
+            <spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
             <trendlineType val="linear"/>
             <dispRSqr val="1"/>
             <dispEq val="1"/>
           </trendline>
           <xVal>
             <numRef>
-              <f>'Flight Tests → CD0, e'!$J$31:$J$43</f>
+              <f>'Flight Tests → CD0, e'!$J$32:$J$43</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'Flight Tests → CD0, e'!$I$31:$I$43</f>
+              <f>'Flight Tests → CD0, e'!$I$32:$I$43</f>
             </numRef>
           </yVal>
         </ser>
@@ -391,12 +399,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'Flight Tests → CD0, e'!$E$31:$E$43</f>
+              <f>'Flight Tests → CD0, e'!$E$32:$E$43</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'Flight Tests → CD0, e'!$H$31:$H$43</f>
+              <f>'Flight Tests → CD0, e'!$H$32:$H$43</f>
             </numRef>
           </yVal>
         </ser>
@@ -506,12 +514,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'Flight Tests → CD0, e'!$E$63:$E$75</f>
+              <f>'Flight Tests → CD0, e'!$E$64:$E$75</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'Flight Tests → CD0, e'!$G$63:$G$75</f>
+              <f>'Flight Tests → CD0, e'!$G$64:$G$75</f>
             </numRef>
           </yVal>
         </ser>

--- a/bootstrap_method.xlsx
+++ b/bootstrap_method.xlsx
@@ -110,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -142,6 +142,7 @@
     <xf numFmtId="167" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="170" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -269,19 +270,6 @@
               </a:ln>
             </spPr>
           </marker>
-          <trendline>
-            <spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <trendlineType val="linear"/>
-            <dispRSqr val="1"/>
-            <dispEq val="1"/>
-          </trendline>
           <xVal>
             <numRef>
               <f>'Flight Tests → CD0, e'!$J$32:$J$43</f>
@@ -290,6 +278,36 @@
           <yVal>
             <numRef>
               <f>'Flight Tests → CD0, e'!$I$32:$I$43</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>Linear fit (R² in B56)</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Flight Tests → CD0, e'!$J$59:$J$60</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Flight Tests → CD0, e'!$I$59:$I$60</f>
             </numRef>
           </yVal>
         </ser>
@@ -878,7 +896,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>101</row>
+      <row>107</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6480000" cy="4320000"/>
@@ -900,7 +918,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>117</row>
+      <row>129</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6480000" cy="4320000"/>
@@ -2370,29 +2388,29 @@
       </c>
       <c r="B32" s="7" t="n"/>
       <c r="C32" s="19">
-        <f>$B$23+$B$24+$B$25+B32*6</f>
+        <f>IF(B32="","",$B$23+$B$24+$B$25+B32*6)</f>
         <v/>
       </c>
       <c r="D32" s="7" t="n"/>
       <c r="E32" s="19">
-        <f>D32+$B$28</f>
+        <f>IF(D32="","",D32+$B$28)</f>
         <v/>
       </c>
       <c r="F32" s="7" t="n"/>
       <c r="G32" s="12">
-        <f>IFERROR((E32/SQRT($B$19))/0.5924838,"")</f>
+        <f>IF(D32="","",IFERROR((E32/SQRT($B$19))/0.5924838,""))</f>
         <v/>
       </c>
       <c r="H32" s="19">
-        <f>IFERROR(E32*F32,"")</f>
+        <f>IF(OR(D32="",F32=""),"",E32*F32)</f>
         <v/>
       </c>
       <c r="I32" s="18">
-        <f>IFERROR(G32/F32,"")</f>
+        <f>IF(OR(D32="",F32=""),"",G32/F32)</f>
         <v/>
       </c>
       <c r="J32" s="19">
-        <f>IFERROR(G32^4,"")</f>
+        <f>IF(OR(D32="",F32=""),"",G32^4)</f>
         <v/>
       </c>
     </row>
@@ -2402,29 +2420,29 @@
       </c>
       <c r="B33" s="7" t="n"/>
       <c r="C33" s="19">
-        <f>$B$23+$B$24+$B$25+B33*6</f>
+        <f>IF(B33="","",$B$23+$B$24+$B$25+B33*6)</f>
         <v/>
       </c>
       <c r="D33" s="7" t="n"/>
       <c r="E33" s="19">
-        <f>D33+$B$28</f>
+        <f>IF(D33="","",D33+$B$28)</f>
         <v/>
       </c>
       <c r="F33" s="7" t="n"/>
       <c r="G33" s="12">
-        <f>IFERROR((E33/SQRT($B$19))/0.5924838,"")</f>
+        <f>IF(D33="","",IFERROR((E33/SQRT($B$19))/0.5924838,""))</f>
         <v/>
       </c>
       <c r="H33" s="19">
-        <f>IFERROR(E33*F33,"")</f>
+        <f>IF(OR(D33="",F33=""),"",E33*F33)</f>
         <v/>
       </c>
       <c r="I33" s="18">
-        <f>IFERROR(G33/F33,"")</f>
+        <f>IF(OR(D33="",F33=""),"",G33/F33)</f>
         <v/>
       </c>
       <c r="J33" s="19">
-        <f>IFERROR(G33^4,"")</f>
+        <f>IF(OR(D33="",F33=""),"",G33^4)</f>
         <v/>
       </c>
     </row>
@@ -2434,29 +2452,29 @@
       </c>
       <c r="B34" s="7" t="n"/>
       <c r="C34" s="19">
-        <f>$B$23+$B$24+$B$25+B34*6</f>
+        <f>IF(B34="","",$B$23+$B$24+$B$25+B34*6)</f>
         <v/>
       </c>
       <c r="D34" s="7" t="n"/>
       <c r="E34" s="19">
-        <f>D34+$B$28</f>
+        <f>IF(D34="","",D34+$B$28)</f>
         <v/>
       </c>
       <c r="F34" s="7" t="n"/>
       <c r="G34" s="12">
-        <f>IFERROR((E34/SQRT($B$19))/0.5924838,"")</f>
+        <f>IF(D34="","",IFERROR((E34/SQRT($B$19))/0.5924838,""))</f>
         <v/>
       </c>
       <c r="H34" s="19">
-        <f>IFERROR(E34*F34,"")</f>
+        <f>IF(OR(D34="",F34=""),"",E34*F34)</f>
         <v/>
       </c>
       <c r="I34" s="18">
-        <f>IFERROR(G34/F34,"")</f>
+        <f>IF(OR(D34="",F34=""),"",G34/F34)</f>
         <v/>
       </c>
       <c r="J34" s="19">
-        <f>IFERROR(G34^4,"")</f>
+        <f>IF(OR(D34="",F34=""),"",G34^4)</f>
         <v/>
       </c>
     </row>
@@ -2466,29 +2484,29 @@
       </c>
       <c r="B35" s="7" t="n"/>
       <c r="C35" s="19">
-        <f>$B$23+$B$24+$B$25+B35*6</f>
+        <f>IF(B35="","",$B$23+$B$24+$B$25+B35*6)</f>
         <v/>
       </c>
       <c r="D35" s="7" t="n"/>
       <c r="E35" s="19">
-        <f>D35+$B$28</f>
+        <f>IF(D35="","",D35+$B$28)</f>
         <v/>
       </c>
       <c r="F35" s="7" t="n"/>
       <c r="G35" s="12">
-        <f>IFERROR((E35/SQRT($B$19))/0.5924838,"")</f>
+        <f>IF(D35="","",IFERROR((E35/SQRT($B$19))/0.5924838,""))</f>
         <v/>
       </c>
       <c r="H35" s="19">
-        <f>IFERROR(E35*F35,"")</f>
+        <f>IF(OR(D35="",F35=""),"",E35*F35)</f>
         <v/>
       </c>
       <c r="I35" s="18">
-        <f>IFERROR(G35/F35,"")</f>
+        <f>IF(OR(D35="",F35=""),"",G35/F35)</f>
         <v/>
       </c>
       <c r="J35" s="19">
-        <f>IFERROR(G35^4,"")</f>
+        <f>IF(OR(D35="",F35=""),"",G35^4)</f>
         <v/>
       </c>
     </row>
@@ -2498,29 +2516,29 @@
       </c>
       <c r="B36" s="7" t="n"/>
       <c r="C36" s="19">
-        <f>$B$23+$B$24+$B$25+B36*6</f>
+        <f>IF(B36="","",$B$23+$B$24+$B$25+B36*6)</f>
         <v/>
       </c>
       <c r="D36" s="7" t="n"/>
       <c r="E36" s="19">
-        <f>D36+$B$28</f>
+        <f>IF(D36="","",D36+$B$28)</f>
         <v/>
       </c>
       <c r="F36" s="7" t="n"/>
       <c r="G36" s="12">
-        <f>IFERROR((E36/SQRT($B$19))/0.5924838,"")</f>
+        <f>IF(D36="","",IFERROR((E36/SQRT($B$19))/0.5924838,""))</f>
         <v/>
       </c>
       <c r="H36" s="19">
-        <f>IFERROR(E36*F36,"")</f>
+        <f>IF(OR(D36="",F36=""),"",E36*F36)</f>
         <v/>
       </c>
       <c r="I36" s="18">
-        <f>IFERROR(G36/F36,"")</f>
+        <f>IF(OR(D36="",F36=""),"",G36/F36)</f>
         <v/>
       </c>
       <c r="J36" s="19">
-        <f>IFERROR(G36^4,"")</f>
+        <f>IF(OR(D36="",F36=""),"",G36^4)</f>
         <v/>
       </c>
     </row>
@@ -2530,29 +2548,29 @@
       </c>
       <c r="B37" s="7" t="n"/>
       <c r="C37" s="19">
-        <f>$B$23+$B$24+$B$25+B37*6</f>
+        <f>IF(B37="","",$B$23+$B$24+$B$25+B37*6)</f>
         <v/>
       </c>
       <c r="D37" s="7" t="n"/>
       <c r="E37" s="19">
-        <f>D37+$B$28</f>
+        <f>IF(D37="","",D37+$B$28)</f>
         <v/>
       </c>
       <c r="F37" s="7" t="n"/>
       <c r="G37" s="12">
-        <f>IFERROR((E37/SQRT($B$19))/0.5924838,"")</f>
+        <f>IF(D37="","",IFERROR((E37/SQRT($B$19))/0.5924838,""))</f>
         <v/>
       </c>
       <c r="H37" s="19">
-        <f>IFERROR(E37*F37,"")</f>
+        <f>IF(OR(D37="",F37=""),"",E37*F37)</f>
         <v/>
       </c>
       <c r="I37" s="18">
-        <f>IFERROR(G37/F37,"")</f>
+        <f>IF(OR(D37="",F37=""),"",G37/F37)</f>
         <v/>
       </c>
       <c r="J37" s="19">
-        <f>IFERROR(G37^4,"")</f>
+        <f>IF(OR(D37="",F37=""),"",G37^4)</f>
         <v/>
       </c>
     </row>
@@ -2562,29 +2580,29 @@
       </c>
       <c r="B38" s="7" t="n"/>
       <c r="C38" s="19">
-        <f>$B$23+$B$24+$B$25+B38*6</f>
+        <f>IF(B38="","",$B$23+$B$24+$B$25+B38*6)</f>
         <v/>
       </c>
       <c r="D38" s="7" t="n"/>
       <c r="E38" s="19">
-        <f>D38+$B$28</f>
+        <f>IF(D38="","",D38+$B$28)</f>
         <v/>
       </c>
       <c r="F38" s="7" t="n"/>
       <c r="G38" s="12">
-        <f>IFERROR((E38/SQRT($B$19))/0.5924838,"")</f>
+        <f>IF(D38="","",IFERROR((E38/SQRT($B$19))/0.5924838,""))</f>
         <v/>
       </c>
       <c r="H38" s="19">
-        <f>IFERROR(E38*F38,"")</f>
+        <f>IF(OR(D38="",F38=""),"",E38*F38)</f>
         <v/>
       </c>
       <c r="I38" s="18">
-        <f>IFERROR(G38/F38,"")</f>
+        <f>IF(OR(D38="",F38=""),"",G38/F38)</f>
         <v/>
       </c>
       <c r="J38" s="19">
-        <f>IFERROR(G38^4,"")</f>
+        <f>IF(OR(D38="",F38=""),"",G38^4)</f>
         <v/>
       </c>
     </row>
@@ -2594,29 +2612,29 @@
       </c>
       <c r="B39" s="7" t="n"/>
       <c r="C39" s="19">
-        <f>$B$23+$B$24+$B$25+B39*6</f>
+        <f>IF(B39="","",$B$23+$B$24+$B$25+B39*6)</f>
         <v/>
       </c>
       <c r="D39" s="7" t="n"/>
       <c r="E39" s="19">
-        <f>D39+$B$28</f>
+        <f>IF(D39="","",D39+$B$28)</f>
         <v/>
       </c>
       <c r="F39" s="7" t="n"/>
       <c r="G39" s="12">
-        <f>IFERROR((E39/SQRT($B$19))/0.5924838,"")</f>
+        <f>IF(D39="","",IFERROR((E39/SQRT($B$19))/0.5924838,""))</f>
         <v/>
       </c>
       <c r="H39" s="19">
-        <f>IFERROR(E39*F39,"")</f>
+        <f>IF(OR(D39="",F39=""),"",E39*F39)</f>
         <v/>
       </c>
       <c r="I39" s="18">
-        <f>IFERROR(G39/F39,"")</f>
+        <f>IF(OR(D39="",F39=""),"",G39/F39)</f>
         <v/>
       </c>
       <c r="J39" s="19">
-        <f>IFERROR(G39^4,"")</f>
+        <f>IF(OR(D39="",F39=""),"",G39^4)</f>
         <v/>
       </c>
     </row>
@@ -2626,29 +2644,29 @@
       </c>
       <c r="B40" s="7" t="n"/>
       <c r="C40" s="19">
-        <f>$B$23+$B$24+$B$25+B40*6</f>
+        <f>IF(B40="","",$B$23+$B$24+$B$25+B40*6)</f>
         <v/>
       </c>
       <c r="D40" s="7" t="n"/>
       <c r="E40" s="19">
-        <f>D40+$B$28</f>
+        <f>IF(D40="","",D40+$B$28)</f>
         <v/>
       </c>
       <c r="F40" s="7" t="n"/>
       <c r="G40" s="12">
-        <f>IFERROR((E40/SQRT($B$19))/0.5924838,"")</f>
+        <f>IF(D40="","",IFERROR((E40/SQRT($B$19))/0.5924838,""))</f>
         <v/>
       </c>
       <c r="H40" s="19">
-        <f>IFERROR(E40*F40,"")</f>
+        <f>IF(OR(D40="",F40=""),"",E40*F40)</f>
         <v/>
       </c>
       <c r="I40" s="18">
-        <f>IFERROR(G40/F40,"")</f>
+        <f>IF(OR(D40="",F40=""),"",G40/F40)</f>
         <v/>
       </c>
       <c r="J40" s="19">
-        <f>IFERROR(G40^4,"")</f>
+        <f>IF(OR(D40="",F40=""),"",G40^4)</f>
         <v/>
       </c>
     </row>
@@ -2658,29 +2676,29 @@
       </c>
       <c r="B41" s="7" t="n"/>
       <c r="C41" s="19">
-        <f>$B$23+$B$24+$B$25+B41*6</f>
+        <f>IF(B41="","",$B$23+$B$24+$B$25+B41*6)</f>
         <v/>
       </c>
       <c r="D41" s="7" t="n"/>
       <c r="E41" s="19">
-        <f>D41+$B$28</f>
+        <f>IF(D41="","",D41+$B$28)</f>
         <v/>
       </c>
       <c r="F41" s="7" t="n"/>
       <c r="G41" s="12">
-        <f>IFERROR((E41/SQRT($B$19))/0.5924838,"")</f>
+        <f>IF(D41="","",IFERROR((E41/SQRT($B$19))/0.5924838,""))</f>
         <v/>
       </c>
       <c r="H41" s="19">
-        <f>IFERROR(E41*F41,"")</f>
+        <f>IF(OR(D41="",F41=""),"",E41*F41)</f>
         <v/>
       </c>
       <c r="I41" s="18">
-        <f>IFERROR(G41/F41,"")</f>
+        <f>IF(OR(D41="",F41=""),"",G41/F41)</f>
         <v/>
       </c>
       <c r="J41" s="19">
-        <f>IFERROR(G41^4,"")</f>
+        <f>IF(OR(D41="",F41=""),"",G41^4)</f>
         <v/>
       </c>
     </row>
@@ -2690,29 +2708,29 @@
       </c>
       <c r="B42" s="7" t="n"/>
       <c r="C42" s="19">
-        <f>$B$23+$B$24+$B$25+B42*6</f>
+        <f>IF(B42="","",$B$23+$B$24+$B$25+B42*6)</f>
         <v/>
       </c>
       <c r="D42" s="7" t="n"/>
       <c r="E42" s="19">
-        <f>D42+$B$28</f>
+        <f>IF(D42="","",D42+$B$28)</f>
         <v/>
       </c>
       <c r="F42" s="7" t="n"/>
       <c r="G42" s="12">
-        <f>IFERROR((E42/SQRT($B$19))/0.5924838,"")</f>
+        <f>IF(D42="","",IFERROR((E42/SQRT($B$19))/0.5924838,""))</f>
         <v/>
       </c>
       <c r="H42" s="19">
-        <f>IFERROR(E42*F42,"")</f>
+        <f>IF(OR(D42="",F42=""),"",E42*F42)</f>
         <v/>
       </c>
       <c r="I42" s="18">
-        <f>IFERROR(G42/F42,"")</f>
+        <f>IF(OR(D42="",F42=""),"",G42/F42)</f>
         <v/>
       </c>
       <c r="J42" s="19">
-        <f>IFERROR(G42^4,"")</f>
+        <f>IF(OR(D42="",F42=""),"",G42^4)</f>
         <v/>
       </c>
     </row>
@@ -2722,29 +2740,29 @@
       </c>
       <c r="B43" s="7" t="n"/>
       <c r="C43" s="19">
-        <f>$B$23+$B$24+$B$25+B43*6</f>
+        <f>IF(B43="","",$B$23+$B$24+$B$25+B43*6)</f>
         <v/>
       </c>
       <c r="D43" s="7" t="n"/>
       <c r="E43" s="19">
-        <f>D43+$B$28</f>
+        <f>IF(D43="","",D43+$B$28)</f>
         <v/>
       </c>
       <c r="F43" s="7" t="n"/>
       <c r="G43" s="12">
-        <f>IFERROR((E43/SQRT($B$19))/0.5924838,"")</f>
+        <f>IF(D43="","",IFERROR((E43/SQRT($B$19))/0.5924838,""))</f>
         <v/>
       </c>
       <c r="H43" s="19">
-        <f>IFERROR(E43*F43,"")</f>
+        <f>IF(OR(D43="",F43=""),"",E43*F43)</f>
         <v/>
       </c>
       <c r="I43" s="18">
-        <f>IFERROR(G43/F43,"")</f>
+        <f>IF(OR(D43="",F43=""),"",G43/F43)</f>
         <v/>
       </c>
       <c r="J43" s="19">
-        <f>IFERROR(G43^4,"")</f>
+        <f>IF(OR(D43="",F43=""),"",G43^4)</f>
         <v/>
       </c>
     </row>
@@ -2920,6 +2938,31 @@
         <is>
           <t>Sanity check: Vbg should be near the max row</t>
         </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="H59" s="25" t="inlineStr">
+        <is>
+          <t>Fit line:</t>
+        </is>
+      </c>
+      <c r="I59" s="18">
+        <f>IF(COUNT(I32:I43)&gt;1,B47*MIN(J32:J43)+B48,"")</f>
+        <v/>
+      </c>
+      <c r="J59" s="19">
+        <f>IF(COUNT(J32:J43)&gt;1,MIN(J32:J43),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="I60" s="18">
+        <f>IF(COUNT(I32:I43)&gt;1,B47*MAX(J32:J43)+B48,"")</f>
+        <v/>
+      </c>
+      <c r="J60" s="19">
+        <f>IF(COUNT(J32:J43)&gt;1,MAX(J32:J43),"")</f>
+        <v/>
       </c>
     </row>
     <row r="62">
@@ -2992,23 +3035,23 @@
       </c>
       <c r="B64" s="7" t="n"/>
       <c r="C64" s="19">
-        <f>$B$23+$B$24+$B$25+B64*6</f>
+        <f>IF(B64="","",$B$23+$B$24+$B$25+B64*6)</f>
         <v/>
       </c>
       <c r="D64" s="7" t="n"/>
       <c r="E64" s="19">
-        <f>D64+$B$28</f>
+        <f>IF(D64="","",D64+$B$28)</f>
         <v/>
       </c>
       <c r="F64" s="7" t="n"/>
       <c r="G64" s="19">
-        <f>$B$18/F64*60</f>
+        <f>IF(F64="","",IFERROR($B$18/F64*60,""))</f>
         <v/>
       </c>
       <c r="H64" s="7" t="n"/>
       <c r="I64" s="7" t="n"/>
       <c r="J64" s="12">
-        <f>IFERROR(DEGREES(ATAN(G64/(((E64/SQRT($B$19))/0.5924838)*60))),"")</f>
+        <f>IF(OR(D64="",F64=""),"",IFERROR(DEGREES(ATAN(G64/(((E64/SQRT($B$19))/0.5924838)*60))),""))</f>
         <v/>
       </c>
     </row>
@@ -3018,23 +3061,23 @@
       </c>
       <c r="B65" s="7" t="n"/>
       <c r="C65" s="19">
-        <f>$B$23+$B$24+$B$25+B65*6</f>
+        <f>IF(B65="","",$B$23+$B$24+$B$25+B65*6)</f>
         <v/>
       </c>
       <c r="D65" s="7" t="n"/>
       <c r="E65" s="19">
-        <f>D65+$B$28</f>
+        <f>IF(D65="","",D65+$B$28)</f>
         <v/>
       </c>
       <c r="F65" s="7" t="n"/>
       <c r="G65" s="19">
-        <f>$B$18/F65*60</f>
+        <f>IF(F65="","",IFERROR($B$18/F65*60,""))</f>
         <v/>
       </c>
       <c r="H65" s="7" t="n"/>
       <c r="I65" s="7" t="n"/>
       <c r="J65" s="12">
-        <f>IFERROR(DEGREES(ATAN(G65/(((E65/SQRT($B$19))/0.5924838)*60))),"")</f>
+        <f>IF(OR(D65="",F65=""),"",IFERROR(DEGREES(ATAN(G65/(((E65/SQRT($B$19))/0.5924838)*60))),""))</f>
         <v/>
       </c>
     </row>
@@ -3044,23 +3087,23 @@
       </c>
       <c r="B66" s="7" t="n"/>
       <c r="C66" s="19">
-        <f>$B$23+$B$24+$B$25+B66*6</f>
+        <f>IF(B66="","",$B$23+$B$24+$B$25+B66*6)</f>
         <v/>
       </c>
       <c r="D66" s="7" t="n"/>
       <c r="E66" s="19">
-        <f>D66+$B$28</f>
+        <f>IF(D66="","",D66+$B$28)</f>
         <v/>
       </c>
       <c r="F66" s="7" t="n"/>
       <c r="G66" s="19">
-        <f>$B$18/F66*60</f>
+        <f>IF(F66="","",IFERROR($B$18/F66*60,""))</f>
         <v/>
       </c>
       <c r="H66" s="7" t="n"/>
       <c r="I66" s="7" t="n"/>
       <c r="J66" s="12">
-        <f>IFERROR(DEGREES(ATAN(G66/(((E66/SQRT($B$19))/0.5924838)*60))),"")</f>
+        <f>IF(OR(D66="",F66=""),"",IFERROR(DEGREES(ATAN(G66/(((E66/SQRT($B$19))/0.5924838)*60))),""))</f>
         <v/>
       </c>
     </row>
@@ -3070,23 +3113,23 @@
       </c>
       <c r="B67" s="7" t="n"/>
       <c r="C67" s="19">
-        <f>$B$23+$B$24+$B$25+B67*6</f>
+        <f>IF(B67="","",$B$23+$B$24+$B$25+B67*6)</f>
         <v/>
       </c>
       <c r="D67" s="7" t="n"/>
       <c r="E67" s="19">
-        <f>D67+$B$28</f>
+        <f>IF(D67="","",D67+$B$28)</f>
         <v/>
       </c>
       <c r="F67" s="7" t="n"/>
       <c r="G67" s="19">
-        <f>$B$18/F67*60</f>
+        <f>IF(F67="","",IFERROR($B$18/F67*60,""))</f>
         <v/>
       </c>
       <c r="H67" s="7" t="n"/>
       <c r="I67" s="7" t="n"/>
       <c r="J67" s="12">
-        <f>IFERROR(DEGREES(ATAN(G67/(((E67/SQRT($B$19))/0.5924838)*60))),"")</f>
+        <f>IF(OR(D67="",F67=""),"",IFERROR(DEGREES(ATAN(G67/(((E67/SQRT($B$19))/0.5924838)*60))),""))</f>
         <v/>
       </c>
     </row>
@@ -3096,23 +3139,23 @@
       </c>
       <c r="B68" s="7" t="n"/>
       <c r="C68" s="19">
-        <f>$B$23+$B$24+$B$25+B68*6</f>
+        <f>IF(B68="","",$B$23+$B$24+$B$25+B68*6)</f>
         <v/>
       </c>
       <c r="D68" s="7" t="n"/>
       <c r="E68" s="19">
-        <f>D68+$B$28</f>
+        <f>IF(D68="","",D68+$B$28)</f>
         <v/>
       </c>
       <c r="F68" s="7" t="n"/>
       <c r="G68" s="19">
-        <f>$B$18/F68*60</f>
+        <f>IF(F68="","",IFERROR($B$18/F68*60,""))</f>
         <v/>
       </c>
       <c r="H68" s="7" t="n"/>
       <c r="I68" s="7" t="n"/>
       <c r="J68" s="12">
-        <f>IFERROR(DEGREES(ATAN(G68/(((E68/SQRT($B$19))/0.5924838)*60))),"")</f>
+        <f>IF(OR(D68="",F68=""),"",IFERROR(DEGREES(ATAN(G68/(((E68/SQRT($B$19))/0.5924838)*60))),""))</f>
         <v/>
       </c>
     </row>
@@ -3122,23 +3165,23 @@
       </c>
       <c r="B69" s="7" t="n"/>
       <c r="C69" s="19">
-        <f>$B$23+$B$24+$B$25+B69*6</f>
+        <f>IF(B69="","",$B$23+$B$24+$B$25+B69*6)</f>
         <v/>
       </c>
       <c r="D69" s="7" t="n"/>
       <c r="E69" s="19">
-        <f>D69+$B$28</f>
+        <f>IF(D69="","",D69+$B$28)</f>
         <v/>
       </c>
       <c r="F69" s="7" t="n"/>
       <c r="G69" s="19">
-        <f>$B$18/F69*60</f>
+        <f>IF(F69="","",IFERROR($B$18/F69*60,""))</f>
         <v/>
       </c>
       <c r="H69" s="7" t="n"/>
       <c r="I69" s="7" t="n"/>
       <c r="J69" s="12">
-        <f>IFERROR(DEGREES(ATAN(G69/(((E69/SQRT($B$19))/0.5924838)*60))),"")</f>
+        <f>IF(OR(D69="",F69=""),"",IFERROR(DEGREES(ATAN(G69/(((E69/SQRT($B$19))/0.5924838)*60))),""))</f>
         <v/>
       </c>
     </row>
@@ -3148,23 +3191,23 @@
       </c>
       <c r="B70" s="7" t="n"/>
       <c r="C70" s="19">
-        <f>$B$23+$B$24+$B$25+B70*6</f>
+        <f>IF(B70="","",$B$23+$B$24+$B$25+B70*6)</f>
         <v/>
       </c>
       <c r="D70" s="7" t="n"/>
       <c r="E70" s="19">
-        <f>D70+$B$28</f>
+        <f>IF(D70="","",D70+$B$28)</f>
         <v/>
       </c>
       <c r="F70" s="7" t="n"/>
       <c r="G70" s="19">
-        <f>$B$18/F70*60</f>
+        <f>IF(F70="","",IFERROR($B$18/F70*60,""))</f>
         <v/>
       </c>
       <c r="H70" s="7" t="n"/>
       <c r="I70" s="7" t="n"/>
       <c r="J70" s="12">
-        <f>IFERROR(DEGREES(ATAN(G70/(((E70/SQRT($B$19))/0.5924838)*60))),"")</f>
+        <f>IF(OR(D70="",F70=""),"",IFERROR(DEGREES(ATAN(G70/(((E70/SQRT($B$19))/0.5924838)*60))),""))</f>
         <v/>
       </c>
     </row>
@@ -3174,23 +3217,23 @@
       </c>
       <c r="B71" s="7" t="n"/>
       <c r="C71" s="19">
-        <f>$B$23+$B$24+$B$25+B71*6</f>
+        <f>IF(B71="","",$B$23+$B$24+$B$25+B71*6)</f>
         <v/>
       </c>
       <c r="D71" s="7" t="n"/>
       <c r="E71" s="19">
-        <f>D71+$B$28</f>
+        <f>IF(D71="","",D71+$B$28)</f>
         <v/>
       </c>
       <c r="F71" s="7" t="n"/>
       <c r="G71" s="19">
-        <f>$B$18/F71*60</f>
+        <f>IF(F71="","",IFERROR($B$18/F71*60,""))</f>
         <v/>
       </c>
       <c r="H71" s="7" t="n"/>
       <c r="I71" s="7" t="n"/>
       <c r="J71" s="12">
-        <f>IFERROR(DEGREES(ATAN(G71/(((E71/SQRT($B$19))/0.5924838)*60))),"")</f>
+        <f>IF(OR(D71="",F71=""),"",IFERROR(DEGREES(ATAN(G71/(((E71/SQRT($B$19))/0.5924838)*60))),""))</f>
         <v/>
       </c>
     </row>
@@ -3200,23 +3243,23 @@
       </c>
       <c r="B72" s="7" t="n"/>
       <c r="C72" s="19">
-        <f>$B$23+$B$24+$B$25+B72*6</f>
+        <f>IF(B72="","",$B$23+$B$24+$B$25+B72*6)</f>
         <v/>
       </c>
       <c r="D72" s="7" t="n"/>
       <c r="E72" s="19">
-        <f>D72+$B$28</f>
+        <f>IF(D72="","",D72+$B$28)</f>
         <v/>
       </c>
       <c r="F72" s="7" t="n"/>
       <c r="G72" s="19">
-        <f>$B$18/F72*60</f>
+        <f>IF(F72="","",IFERROR($B$18/F72*60,""))</f>
         <v/>
       </c>
       <c r="H72" s="7" t="n"/>
       <c r="I72" s="7" t="n"/>
       <c r="J72" s="12">
-        <f>IFERROR(DEGREES(ATAN(G72/(((E72/SQRT($B$19))/0.5924838)*60))),"")</f>
+        <f>IF(OR(D72="",F72=""),"",IFERROR(DEGREES(ATAN(G72/(((E72/SQRT($B$19))/0.5924838)*60))),""))</f>
         <v/>
       </c>
     </row>
@@ -3226,23 +3269,23 @@
       </c>
       <c r="B73" s="7" t="n"/>
       <c r="C73" s="19">
-        <f>$B$23+$B$24+$B$25+B73*6</f>
+        <f>IF(B73="","",$B$23+$B$24+$B$25+B73*6)</f>
         <v/>
       </c>
       <c r="D73" s="7" t="n"/>
       <c r="E73" s="19">
-        <f>D73+$B$28</f>
+        <f>IF(D73="","",D73+$B$28)</f>
         <v/>
       </c>
       <c r="F73" s="7" t="n"/>
       <c r="G73" s="19">
-        <f>$B$18/F73*60</f>
+        <f>IF(F73="","",IFERROR($B$18/F73*60,""))</f>
         <v/>
       </c>
       <c r="H73" s="7" t="n"/>
       <c r="I73" s="7" t="n"/>
       <c r="J73" s="12">
-        <f>IFERROR(DEGREES(ATAN(G73/(((E73/SQRT($B$19))/0.5924838)*60))),"")</f>
+        <f>IF(OR(D73="",F73=""),"",IFERROR(DEGREES(ATAN(G73/(((E73/SQRT($B$19))/0.5924838)*60))),""))</f>
         <v/>
       </c>
     </row>
@@ -3252,23 +3295,23 @@
       </c>
       <c r="B74" s="7" t="n"/>
       <c r="C74" s="19">
-        <f>$B$23+$B$24+$B$25+B74*6</f>
+        <f>IF(B74="","",$B$23+$B$24+$B$25+B74*6)</f>
         <v/>
       </c>
       <c r="D74" s="7" t="n"/>
       <c r="E74" s="19">
-        <f>D74+$B$28</f>
+        <f>IF(D74="","",D74+$B$28)</f>
         <v/>
       </c>
       <c r="F74" s="7" t="n"/>
       <c r="G74" s="19">
-        <f>$B$18/F74*60</f>
+        <f>IF(F74="","",IFERROR($B$18/F74*60,""))</f>
         <v/>
       </c>
       <c r="H74" s="7" t="n"/>
       <c r="I74" s="7" t="n"/>
       <c r="J74" s="12">
-        <f>IFERROR(DEGREES(ATAN(G74/(((E74/SQRT($B$19))/0.5924838)*60))),"")</f>
+        <f>IF(OR(D74="",F74=""),"",IFERROR(DEGREES(ATAN(G74/(((E74/SQRT($B$19))/0.5924838)*60))),""))</f>
         <v/>
       </c>
     </row>
@@ -3278,23 +3321,23 @@
       </c>
       <c r="B75" s="7" t="n"/>
       <c r="C75" s="19">
-        <f>$B$23+$B$24+$B$25+B75*6</f>
+        <f>IF(B75="","",$B$23+$B$24+$B$25+B75*6)</f>
         <v/>
       </c>
       <c r="D75" s="7" t="n"/>
       <c r="E75" s="19">
-        <f>D75+$B$28</f>
+        <f>IF(D75="","",D75+$B$28)</f>
         <v/>
       </c>
       <c r="F75" s="7" t="n"/>
       <c r="G75" s="19">
-        <f>$B$18/F75*60</f>
+        <f>IF(F75="","",IFERROR($B$18/F75*60,""))</f>
         <v/>
       </c>
       <c r="H75" s="7" t="n"/>
       <c r="I75" s="7" t="n"/>
       <c r="J75" s="12">
-        <f>IFERROR(DEGREES(ATAN(G75/(((E75/SQRT($B$19))/0.5924838)*60))),"")</f>
+        <f>IF(OR(D75="",F75=""),"",IFERROR(DEGREES(ATAN(G75/(((E75/SQRT($B$19))/0.5924838)*60))),""))</f>
         <v/>
       </c>
     </row>
@@ -3463,7 +3506,7 @@
           <t>S (wing area)</t>
         </is>
       </c>
-      <c r="B5" s="25" t="n">
+      <c r="B5" s="26" t="n">
         <v>174</v>
       </c>
       <c r="C5" s="14" t="inlineStr">
@@ -3483,7 +3526,7 @@
           <t>B (wing span)</t>
         </is>
       </c>
-      <c r="B6" s="25" t="n">
+      <c r="B6" s="26" t="n">
         <v>36</v>
       </c>
       <c r="C6" s="14" t="inlineStr">
@@ -3503,7 +3546,7 @@
           <t>P0 (rated power)</t>
         </is>
       </c>
-      <c r="B7" s="25" t="n">
+      <c r="B7" s="26" t="n">
         <v>235</v>
       </c>
       <c r="C7" s="14" t="inlineStr">
@@ -3523,7 +3566,7 @@
           <t>N0 (rated RPM)</t>
         </is>
       </c>
-      <c r="B8" s="25" t="n">
+      <c r="B8" s="26" t="n">
         <v>2400</v>
       </c>
       <c r="C8" s="14" t="inlineStr">
@@ -3543,7 +3586,7 @@
           <t>d (prop diameter)</t>
         </is>
       </c>
-      <c r="B9" s="25" t="n">
+      <c r="B9" s="26" t="n">
         <v>6.83</v>
       </c>
       <c r="C9" s="14" t="inlineStr">
@@ -3614,7 +3657,7 @@
           <t>Z (fuselage dia / prop dia)</t>
         </is>
       </c>
-      <c r="B13" s="25" t="n">
+      <c r="B13" s="26" t="n">
         <v>0.6879999999999999</v>
       </c>
       <c r="C13" s="14" t="inlineStr"/>
@@ -3630,7 +3673,7 @@
           <t>Tractor? (1=yes, 0=no)</t>
         </is>
       </c>
-      <c r="B14" s="25" t="n">
+      <c r="B14" s="26" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="14" t="inlineStr"/>
@@ -3646,7 +3689,7 @@
           <t>BB (num blades)</t>
         </is>
       </c>
-      <c r="B15" s="25" t="n">
+      <c r="B15" s="26" t="n">
         <v>2</v>
       </c>
       <c r="C15" s="14" t="inlineStr"/>
@@ -3662,7 +3705,7 @@
           <t>C (power dropoff)</t>
         </is>
       </c>
-      <c r="B16" s="25" t="n">
+      <c r="B16" s="26" t="n">
         <v>0.12</v>
       </c>
       <c r="C16" s="14" t="inlineStr"/>
@@ -3714,188 +3757,188 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="26" t="inlineStr">
+      <c r="A21" s="27" t="inlineStr">
         <is>
           <t>{:S</t>
         </is>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="27">
         <f>TEXT(B5,"0.0")</f>
         <v/>
       </c>
-      <c r="C21" s="26" t="inlineStr">
+      <c r="C21" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">  ;; wing area, ft²</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="26" t="inlineStr">
+      <c r="A22" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve"> :B</t>
         </is>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="27">
         <f>TEXT(B6,"0.0")</f>
         <v/>
       </c>
-      <c r="C22" s="26" t="inlineStr">
+      <c r="C22" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">  ;; wing span, ft</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="26" t="inlineStr">
+      <c r="A23" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve"> :P0</t>
         </is>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="27">
         <f>TEXT(B7,"0.0")</f>
         <v/>
       </c>
-      <c r="C23" s="26" t="inlineStr">
+      <c r="C23" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">  ;; rated MSL power, hp</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="26" t="inlineStr">
+      <c r="A24" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve"> :N0</t>
         </is>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="27">
         <f>TEXT(B8,"0")</f>
         <v/>
       </c>
-      <c r="C24" s="26" t="inlineStr">
+      <c r="C24" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">  ;; rated RPM</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="26" t="inlineStr">
+      <c r="A25" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve"> :d</t>
         </is>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="27">
         <f>TEXT(B9,"0.000")</f>
         <v/>
       </c>
-      <c r="C25" s="26" t="inlineStr">
+      <c r="C25" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">  ;; prop diameter, ft</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="26" t="inlineStr">
+      <c r="A26" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve"> :CD0</t>
         </is>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="27">
         <f>TEXT(B10,"0.00000")</f>
         <v/>
       </c>
-      <c r="C26" s="26" t="inlineStr">
+      <c r="C26" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">  ;; parasite drag coefficient</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="26" t="inlineStr">
+      <c r="A27" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve"> :e</t>
         </is>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="27">
         <f>TEXT(B11,"0.000")</f>
         <v/>
       </c>
-      <c r="C27" s="26" t="inlineStr">
+      <c r="C27" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">  ;; airplane efficiency factor</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="26" t="inlineStr">
+      <c r="A28" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve"> :TAF</t>
         </is>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="27">
         <f>TEXT(B12,"0.0")</f>
         <v/>
       </c>
-      <c r="C28" s="26" t="inlineStr">
+      <c r="C28" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">  ;; total activity factor</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="26" t="inlineStr">
+      <c r="A29" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve"> :Z</t>
         </is>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="27">
         <f>TEXT(B13,"0.000")</f>
         <v/>
       </c>
-      <c r="C29" s="26" t="inlineStr">
+      <c r="C29" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">  ;; fuselage dia / prop dia</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="26" t="inlineStr">
+      <c r="A30" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve"> :tractor?</t>
         </is>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="27">
         <f>IF(B14=1,"true","false")</f>
         <v/>
       </c>
-      <c r="C30" s="26" t="inlineStr"/>
+      <c r="C30" s="27" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="26" t="inlineStr">
+      <c r="A31" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve"> :BB</t>
         </is>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="27">
         <f>TEXT(B15,"0")</f>
         <v/>
       </c>
-      <c r="C31" s="26" t="inlineStr">
+      <c r="C31" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">  ;; number of blades</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="26" t="inlineStr">
+      <c r="A32" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve"> :C</t>
         </is>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="27">
         <f>TEXT(B16,"0.00")</f>
         <v/>
       </c>
-      <c r="C32" s="26" t="inlineStr">
+      <c r="C32" s="27" t="inlineStr">
         <is>
           <t>}  ;; altitude power dropoff</t>
         </is>
@@ -4011,28 +4054,28 @@
           <t>(constant)</t>
         </is>
       </c>
-      <c r="C6" s="27" t="n">
+      <c r="C6" s="28" t="n">
         <v>-0.027280541925</v>
       </c>
-      <c r="D6" s="27" t="n">
+      <c r="D6" s="28" t="n">
         <v>-0.038502996895</v>
       </c>
-      <c r="E6" s="27" t="n">
+      <c r="E6" s="28" t="n">
         <v>-0.026741905</v>
       </c>
-      <c r="F6" s="27" t="n">
+      <c r="F6" s="28" t="n">
         <v>0.038100252152</v>
       </c>
-      <c r="G6" s="27" t="n">
+      <c r="G6" s="28" t="n">
         <v>0.251897476</v>
       </c>
-      <c r="H6" s="27" t="n">
+      <c r="H6" s="28" t="n">
         <v>0.140144145675</v>
       </c>
-      <c r="I6" s="27" t="n">
+      <c r="I6" s="28" t="n">
         <v>-0.70560405</v>
       </c>
-      <c r="J6" s="27" t="n">
+      <c r="J6" s="28" t="n">
         <v>-2.340532183939</v>
       </c>
     </row>
@@ -4047,28 +4090,28 @@
           <t>(h)</t>
         </is>
       </c>
-      <c r="C7" s="27" t="n">
+      <c r="C7" s="28" t="n">
         <v>1.157818942224</v>
       </c>
-      <c r="D7" s="27" t="n">
+      <c r="D7" s="28" t="n">
         <v>1.046135815788</v>
       </c>
-      <c r="E7" s="27" t="n">
+      <c r="E7" s="28" t="n">
         <v>0.7175824135</v>
       </c>
-      <c r="F7" s="27" t="n">
+      <c r="F7" s="28" t="n">
         <v>0.19952245559</v>
       </c>
-      <c r="G7" s="27" t="n">
+      <c r="G7" s="28" t="n">
         <v>-0.56166584</v>
       </c>
-      <c r="H7" s="27" t="n">
+      <c r="H7" s="28" t="n">
         <v>0.071636129794</v>
       </c>
-      <c r="I7" s="27" t="n">
+      <c r="I7" s="28" t="n">
         <v>2.868232531</v>
       </c>
-      <c r="J7" s="27" t="n">
+      <c r="J7" s="28" t="n">
         <v>7.56393789715</v>
       </c>
     </row>
@@ -4083,28 +4126,28 @@
           <t>(h²)</t>
         </is>
       </c>
-      <c r="C8" s="27" t="n">
+      <c r="C8" s="28" t="n">
         <v>-0.5489231230129999</v>
       </c>
-      <c r="D8" s="27" t="n">
+      <c r="D8" s="28" t="n">
         <v>-0.485313329667</v>
       </c>
-      <c r="E8" s="27" t="n">
+      <c r="E8" s="28" t="n">
         <v>-0.08467334999999999</v>
       </c>
-      <c r="F8" s="27" t="n">
+      <c r="F8" s="28" t="n">
         <v>0.458898025445</v>
       </c>
-      <c r="G8" s="27" t="n">
+      <c r="G8" s="28" t="n">
         <v>1.13905513</v>
       </c>
-      <c r="H8" s="27" t="n">
+      <c r="H8" s="28" t="n">
         <v>-0.057356417627</v>
       </c>
-      <c r="I8" s="27" t="n">
+      <c r="I8" s="28" t="n">
         <v>-3.651371295</v>
       </c>
-      <c r="J8" s="27" t="n">
+      <c r="J8" s="28" t="n">
         <v>-9.020964992474999</v>
       </c>
     </row>
@@ -4119,28 +4162,28 @@
           <t>(h³)</t>
         </is>
       </c>
-      <c r="C9" s="27" t="n">
+      <c r="C9" s="28" t="n">
         <v>0.038551650269</v>
       </c>
-      <c r="D9" s="27" t="n">
+      <c r="D9" s="28" t="n">
         <v>0.130100232509</v>
       </c>
-      <c r="E9" s="27" t="n">
+      <c r="E9" s="28" t="n">
         <v>-0.07445168000000001</v>
       </c>
-      <c r="F9" s="27" t="n">
+      <c r="F9" s="28" t="n">
         <v>-0.318992736679</v>
       </c>
-      <c r="G9" s="27" t="n">
+      <c r="G9" s="28" t="n">
         <v>-0.60219333</v>
       </c>
-      <c r="H9" s="27" t="n">
+      <c r="H9" s="28" t="n">
         <v>0.276378945894</v>
       </c>
-      <c r="I9" s="27" t="n">
+      <c r="I9" s="28" t="n">
         <v>2.487262933</v>
       </c>
-      <c r="J9" s="27" t="n">
+      <c r="J9" s="28" t="n">
         <v>5.550045133294</v>
       </c>
     </row>
@@ -4155,28 +4198,28 @@
           <t>(h⁴)</t>
         </is>
       </c>
-      <c r="C10" s="27" t="n">
+      <c r="C10" s="28" t="n">
         <v>0.06458055527999999</v>
       </c>
-      <c r="D10" s="27" t="n">
+      <c r="D10" s="28" t="n">
         <v>-0.027326610124</v>
       </c>
-      <c r="E10" s="27" t="n">
+      <c r="E10" s="28" t="n">
         <v>0.026437051</v>
       </c>
-      <c r="F10" s="27" t="n">
+      <c r="F10" s="28" t="n">
         <v>0.081357821405</v>
       </c>
-      <c r="G10" s="27" t="n">
+      <c r="G10" s="28" t="n">
         <v>0.144341736</v>
       </c>
-      <c r="H10" s="27" t="n">
+      <c r="H10" s="28" t="n">
         <v>-0.159843307011</v>
       </c>
-      <c r="I10" s="27" t="n">
+      <c r="I10" s="28" t="n">
         <v>-0.8634212</v>
       </c>
-      <c r="J10" s="27" t="n">
+      <c r="J10" s="28" t="n">
         <v>-1.793776917489</v>
       </c>
     </row>
@@ -4191,28 +4234,28 @@
           <t>(h⁵)</t>
         </is>
       </c>
-      <c r="C11" s="27" t="n">
+      <c r="C11" s="28" t="n">
         <v>-0.026301243311</v>
       </c>
-      <c r="D11" s="27" t="n">
+      <c r="D11" s="28" t="n">
         <v>0.003139013961</v>
       </c>
-      <c r="E11" s="27" t="n">
+      <c r="E11" s="28" t="n">
         <v>-0.003537565</v>
       </c>
-      <c r="F11" s="27" t="n">
+      <c r="F11" s="28" t="n">
         <v>-0.009083801712</v>
       </c>
-      <c r="G11" s="27" t="n">
+      <c r="G11" s="28" t="n">
         <v>-0.01619473</v>
       </c>
-      <c r="H11" s="27" t="n">
+      <c r="H11" s="28" t="n">
         <v>0.034239846258</v>
       </c>
-      <c r="I11" s="27" t="n">
+      <c r="I11" s="28" t="n">
         <v>0.1464783315</v>
       </c>
-      <c r="J11" s="27" t="n">
+      <c r="J11" s="28" t="n">
         <v>0.291020480454</v>
       </c>
     </row>
@@ -4227,28 +4270,28 @@
           <t>(h⁶)</t>
         </is>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="28" t="n">
         <v>0.003017419881</v>
       </c>
-      <c r="D12" s="27" t="n">
+      <c r="D12" s="28" t="n">
         <v>-0.000131566345</v>
       </c>
-      <c r="E12" s="27" t="n">
+      <c r="E12" s="28" t="n">
         <v>0.000177733</v>
       </c>
-      <c r="F12" s="27" t="n">
+      <c r="F12" s="28" t="n">
         <v>0.000350613126</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="28" t="n">
         <v>0.000664038</v>
       </c>
-      <c r="H12" s="27" t="n">
+      <c r="H12" s="28" t="n">
         <v>-0.002573002786</v>
       </c>
-      <c r="I12" s="27" t="n">
+      <c r="I12" s="28" t="n">
         <v>-0.009686854999999999</v>
       </c>
-      <c r="J12" s="27" t="n">
+      <c r="J12" s="28" t="n">
         <v>-0.018743169313</v>
       </c>
     </row>
@@ -4368,7 +4411,7 @@
           <t>N0 (rated RPM)</t>
         </is>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="29">
         <f>'Data Plate'!B8</f>
         <v/>
       </c>
@@ -4444,7 +4487,7 @@
           <t>Tractor? (1=yes, 0=no)</t>
         </is>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="29">
         <f>'Data Plate'!B14</f>
         <v/>
       </c>
@@ -4455,7 +4498,7 @@
           <t>BB (num blades)</t>
         </is>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="29">
         <f>'Data Plate'!B15</f>
         <v/>
       </c>
@@ -4489,7 +4532,7 @@
           <t>W (gross weight)</t>
         </is>
       </c>
-      <c r="B33" s="29" t="n">
+      <c r="B33" s="30" t="n">
         <v>3100</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -4504,7 +4547,7 @@
           <t>h (density alt)</t>
         </is>
       </c>
-      <c r="B34" s="30" t="n">
+      <c r="B34" s="31" t="n">
         <v>8000</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -4519,7 +4562,7 @@
           <t>N (RPM)</t>
         </is>
       </c>
-      <c r="B35" s="30" t="n">
+      <c r="B35" s="31" t="n">
         <v>2300</v>
       </c>
     </row>
@@ -4529,7 +4572,7 @@
           <t>% Power (0–1)</t>
         </is>
       </c>
-      <c r="B36" s="25" t="n">
+      <c r="B36" s="26" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -4701,7 +4744,7 @@
           <t>GAGPC bracket idx</t>
         </is>
       </c>
-      <c r="B49" s="31">
+      <c r="B49" s="32">
         <f>MIN(MATCH(B48,$C$5:$J$5,1),7)</f>
         <v/>
       </c>
@@ -4914,7 +4957,7 @@
           <t>σ</t>
         </is>
       </c>
-      <c r="B64" s="32" t="n">
+      <c r="B64" s="33" t="n">
         <v>0.786</v>
       </c>
       <c r="C64" s="15">
@@ -4932,7 +4975,7 @@
           <t>ρ</t>
         </is>
       </c>
-      <c r="B65" s="33" t="n">
+      <c r="B65" s="34" t="n">
         <v>0.001868</v>
       </c>
       <c r="C65" s="20">
@@ -4950,7 +4993,7 @@
           <t>φ</t>
         </is>
       </c>
-      <c r="B66" s="32" t="n">
+      <c r="B66" s="33" t="n">
         <v>0.7568</v>
       </c>
       <c r="C66" s="15">
@@ -4968,7 +5011,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="B67" s="32" t="n">
+      <c r="B67" s="33" t="n">
         <v>0.2088</v>
       </c>
       <c r="C67" s="15">
@@ -4986,7 +5029,7 @@
           <t>SDF</t>
         </is>
       </c>
-      <c r="B68" s="34" t="n">
+      <c r="B68" s="35" t="n">
         <v>0.91</v>
       </c>
       <c r="C68" s="18">
@@ -5016,7 +5059,7 @@
           <t>η (eta)</t>
         </is>
       </c>
-      <c r="B71" s="34" t="n">
+      <c r="B71" s="35" t="n">
         <v>0.617</v>
       </c>
       <c r="C71" s="18">
@@ -5106,7 +5149,7 @@
           <t>ROC</t>
         </is>
       </c>
-      <c r="B76" s="35" t="n">
+      <c r="B76" s="36" t="n">
         <v>273.23</v>
       </c>
       <c r="C76" s="19">
@@ -5124,7 +5167,7 @@
           <t>ROS</t>
         </is>
       </c>
-      <c r="B77" s="35" t="n">
+      <c r="B77" s="36" t="n">
         <v>729.37</v>
       </c>
       <c r="C77" s="19">
@@ -5142,7 +5185,7 @@
           <t>AOG</t>
         </is>
       </c>
-      <c r="B78" s="34" t="n">
+      <c r="B78" s="35" t="n">
         <v>6.109</v>
       </c>
       <c r="C78" s="18">
@@ -5167,7 +5210,7 @@
           <t>Vy KCAS</t>
         </is>
       </c>
-      <c r="B81" s="35" t="n">
+      <c r="B81" s="36" t="n">
         <v>77</v>
       </c>
       <c r="C81" s="19">
@@ -5185,7 +5228,7 @@
           <t>Vy ROC</t>
         </is>
       </c>
-      <c r="B82" s="35" t="n">
+      <c r="B82" s="36" t="n">
         <v>371.7</v>
       </c>
       <c r="C82" s="19">
@@ -5203,7 +5246,7 @@
           <t>Vx KCAS</t>
         </is>
       </c>
-      <c r="B83" s="35" t="n">
+      <c r="B83" s="36" t="n">
         <v>69.5</v>
       </c>
       <c r="C83" s="19">
@@ -5239,7 +5282,7 @@
           <t>Vbg KCAS</t>
         </is>
       </c>
-      <c r="B85" s="35" t="n">
+      <c r="B85" s="36" t="n">
         <v>87</v>
       </c>
       <c r="C85" s="19">
@@ -5275,7 +5318,7 @@
           <t>Vmd KCAS</t>
         </is>
       </c>
-      <c r="B87" s="35" t="n">
+      <c r="B87" s="36" t="n">
         <v>66</v>
       </c>
       <c r="C87" s="19">
@@ -5293,7 +5336,7 @@
           <t>Vmd ROS</t>
         </is>
       </c>
-      <c r="B88" s="35" t="n">
+      <c r="B88" s="36" t="n">
         <v>719.9</v>
       </c>
       <c r="C88" s="19">
@@ -5311,7 +5354,7 @@
           <t>VM KCAS</t>
         </is>
       </c>
-      <c r="B89" s="35" t="n">
+      <c r="B89" s="36" t="n">
         <v>111.5</v>
       </c>
       <c r="C89" s="19">
@@ -5430,7 +5473,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="35" t="n">
+      <c r="A95" s="36" t="n">
         <v>60</v>
       </c>
       <c r="B95" s="19">
@@ -5499,7 +5542,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="35" t="n">
+      <c r="A96" s="36" t="n">
         <v>60.5</v>
       </c>
       <c r="B96" s="19">
@@ -5568,7 +5611,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="35" t="n">
+      <c r="A97" s="36" t="n">
         <v>61</v>
       </c>
       <c r="B97" s="19">
@@ -5637,7 +5680,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="35" t="n">
+      <c r="A98" s="36" t="n">
         <v>61.5</v>
       </c>
       <c r="B98" s="19">
@@ -5706,7 +5749,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="35" t="n">
+      <c r="A99" s="36" t="n">
         <v>62</v>
       </c>
       <c r="B99" s="19">
@@ -5775,7 +5818,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="35" t="n">
+      <c r="A100" s="36" t="n">
         <v>62.5</v>
       </c>
       <c r="B100" s="19">
@@ -5844,7 +5887,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="35" t="n">
+      <c r="A101" s="36" t="n">
         <v>63</v>
       </c>
       <c r="B101" s="19">
@@ -5913,7 +5956,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="35" t="n">
+      <c r="A102" s="36" t="n">
         <v>63.5</v>
       </c>
       <c r="B102" s="19">
@@ -5982,7 +6025,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="35" t="n">
+      <c r="A103" s="36" t="n">
         <v>64</v>
       </c>
       <c r="B103" s="19">
@@ -6051,7 +6094,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="35" t="n">
+      <c r="A104" s="36" t="n">
         <v>64.5</v>
       </c>
       <c r="B104" s="19">
@@ -6120,7 +6163,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="35" t="n">
+      <c r="A105" s="36" t="n">
         <v>65</v>
       </c>
       <c r="B105" s="19">
@@ -6189,7 +6232,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="35" t="n">
+      <c r="A106" s="36" t="n">
         <v>65.5</v>
       </c>
       <c r="B106" s="19">
@@ -6258,7 +6301,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="35" t="n">
+      <c r="A107" s="36" t="n">
         <v>66</v>
       </c>
       <c r="B107" s="19">
@@ -6327,7 +6370,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="35" t="n">
+      <c r="A108" s="36" t="n">
         <v>66.5</v>
       </c>
       <c r="B108" s="19">
@@ -6396,7 +6439,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="35" t="n">
+      <c r="A109" s="36" t="n">
         <v>67</v>
       </c>
       <c r="B109" s="19">
@@ -6465,7 +6508,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="35" t="n">
+      <c r="A110" s="36" t="n">
         <v>67.5</v>
       </c>
       <c r="B110" s="19">
@@ -6534,7 +6577,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="35" t="n">
+      <c r="A111" s="36" t="n">
         <v>68</v>
       </c>
       <c r="B111" s="19">
@@ -6603,7 +6646,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="35" t="n">
+      <c r="A112" s="36" t="n">
         <v>68.5</v>
       </c>
       <c r="B112" s="19">
@@ -6672,7 +6715,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="35" t="n">
+      <c r="A113" s="36" t="n">
         <v>69</v>
       </c>
       <c r="B113" s="19">
@@ -6741,7 +6784,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="35" t="n">
+      <c r="A114" s="36" t="n">
         <v>69.5</v>
       </c>
       <c r="B114" s="19">
@@ -6810,7 +6853,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="35" t="n">
+      <c r="A115" s="36" t="n">
         <v>70</v>
       </c>
       <c r="B115" s="19">
@@ -6879,7 +6922,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="35" t="n">
+      <c r="A116" s="36" t="n">
         <v>70.5</v>
       </c>
       <c r="B116" s="19">
@@ -6948,7 +6991,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="35" t="n">
+      <c r="A117" s="36" t="n">
         <v>71</v>
       </c>
       <c r="B117" s="19">
@@ -7017,7 +7060,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="35" t="n">
+      <c r="A118" s="36" t="n">
         <v>71.5</v>
       </c>
       <c r="B118" s="19">
@@ -7086,7 +7129,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="35" t="n">
+      <c r="A119" s="36" t="n">
         <v>72</v>
       </c>
       <c r="B119" s="19">
@@ -7155,7 +7198,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="35" t="n">
+      <c r="A120" s="36" t="n">
         <v>72.5</v>
       </c>
       <c r="B120" s="19">
@@ -7224,7 +7267,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="35" t="n">
+      <c r="A121" s="36" t="n">
         <v>73</v>
       </c>
       <c r="B121" s="19">
@@ -7293,7 +7336,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="35" t="n">
+      <c r="A122" s="36" t="n">
         <v>73.5</v>
       </c>
       <c r="B122" s="19">
@@ -7362,7 +7405,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="35" t="n">
+      <c r="A123" s="36" t="n">
         <v>74</v>
       </c>
       <c r="B123" s="19">
@@ -7431,7 +7474,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="35" t="n">
+      <c r="A124" s="36" t="n">
         <v>74.5</v>
       </c>
       <c r="B124" s="19">
@@ -7500,7 +7543,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="35" t="n">
+      <c r="A125" s="36" t="n">
         <v>75</v>
       </c>
       <c r="B125" s="19">
@@ -7569,7 +7612,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="35" t="n">
+      <c r="A126" s="36" t="n">
         <v>75.5</v>
       </c>
       <c r="B126" s="19">
@@ -7638,7 +7681,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="35" t="n">
+      <c r="A127" s="36" t="n">
         <v>76</v>
       </c>
       <c r="B127" s="19">
@@ -7707,7 +7750,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="35" t="n">
+      <c r="A128" s="36" t="n">
         <v>76.5</v>
       </c>
       <c r="B128" s="19">
@@ -7776,7 +7819,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="35" t="n">
+      <c r="A129" s="36" t="n">
         <v>77</v>
       </c>
       <c r="B129" s="19">
@@ -7845,7 +7888,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="35" t="n">
+      <c r="A130" s="36" t="n">
         <v>77.5</v>
       </c>
       <c r="B130" s="19">
@@ -7914,7 +7957,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="35" t="n">
+      <c r="A131" s="36" t="n">
         <v>78</v>
       </c>
       <c r="B131" s="19">
@@ -7983,7 +8026,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="35" t="n">
+      <c r="A132" s="36" t="n">
         <v>78.5</v>
       </c>
       <c r="B132" s="19">
@@ -8052,7 +8095,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="35" t="n">
+      <c r="A133" s="36" t="n">
         <v>79</v>
       </c>
       <c r="B133" s="19">
@@ -8121,7 +8164,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="35" t="n">
+      <c r="A134" s="36" t="n">
         <v>79.5</v>
       </c>
       <c r="B134" s="19">
@@ -8190,7 +8233,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="35" t="n">
+      <c r="A135" s="36" t="n">
         <v>80</v>
       </c>
       <c r="B135" s="19">
@@ -8259,7 +8302,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="35" t="n">
+      <c r="A136" s="36" t="n">
         <v>80.5</v>
       </c>
       <c r="B136" s="19">
@@ -8328,7 +8371,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="35" t="n">
+      <c r="A137" s="36" t="n">
         <v>81</v>
       </c>
       <c r="B137" s="19">
@@ -8397,7 +8440,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="35" t="n">
+      <c r="A138" s="36" t="n">
         <v>81.5</v>
       </c>
       <c r="B138" s="19">
@@ -8466,7 +8509,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="35" t="n">
+      <c r="A139" s="36" t="n">
         <v>82</v>
       </c>
       <c r="B139" s="19">
@@ -8535,7 +8578,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="35" t="n">
+      <c r="A140" s="36" t="n">
         <v>82.5</v>
       </c>
       <c r="B140" s="19">
@@ -8604,7 +8647,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="35" t="n">
+      <c r="A141" s="36" t="n">
         <v>83</v>
       </c>
       <c r="B141" s="19">
@@ -8673,7 +8716,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="35" t="n">
+      <c r="A142" s="36" t="n">
         <v>83.5</v>
       </c>
       <c r="B142" s="19">
@@ -8742,7 +8785,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="35" t="n">
+      <c r="A143" s="36" t="n">
         <v>84</v>
       </c>
       <c r="B143" s="19">
@@ -8811,7 +8854,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="35" t="n">
+      <c r="A144" s="36" t="n">
         <v>84.5</v>
       </c>
       <c r="B144" s="19">
@@ -8880,7 +8923,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="35" t="n">
+      <c r="A145" s="36" t="n">
         <v>85</v>
       </c>
       <c r="B145" s="19">
@@ -8949,7 +8992,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="35" t="n">
+      <c r="A146" s="36" t="n">
         <v>85.5</v>
       </c>
       <c r="B146" s="19">
@@ -9018,7 +9061,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="35" t="n">
+      <c r="A147" s="36" t="n">
         <v>86</v>
       </c>
       <c r="B147" s="19">
@@ -9087,7 +9130,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="35" t="n">
+      <c r="A148" s="36" t="n">
         <v>86.5</v>
       </c>
       <c r="B148" s="19">
@@ -9156,7 +9199,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="35" t="n">
+      <c r="A149" s="36" t="n">
         <v>87</v>
       </c>
       <c r="B149" s="19">
@@ -9225,7 +9268,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="35" t="n">
+      <c r="A150" s="36" t="n">
         <v>87.5</v>
       </c>
       <c r="B150" s="19">
@@ -9294,7 +9337,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="35" t="n">
+      <c r="A151" s="36" t="n">
         <v>88</v>
       </c>
       <c r="B151" s="19">
@@ -9363,7 +9406,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="35" t="n">
+      <c r="A152" s="36" t="n">
         <v>88.5</v>
       </c>
       <c r="B152" s="19">
@@ -9432,7 +9475,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="35" t="n">
+      <c r="A153" s="36" t="n">
         <v>89</v>
       </c>
       <c r="B153" s="19">
@@ -9501,7 +9544,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="35" t="n">
+      <c r="A154" s="36" t="n">
         <v>89.5</v>
       </c>
       <c r="B154" s="19">
@@ -9570,7 +9613,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="35" t="n">
+      <c r="A155" s="36" t="n">
         <v>90</v>
       </c>
       <c r="B155" s="19">
@@ -9639,7 +9682,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="35" t="n">
+      <c r="A156" s="36" t="n">
         <v>90.5</v>
       </c>
       <c r="B156" s="19">
@@ -9708,7 +9751,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="35" t="n">
+      <c r="A157" s="36" t="n">
         <v>91</v>
       </c>
       <c r="B157" s="19">
@@ -9777,7 +9820,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="35" t="n">
+      <c r="A158" s="36" t="n">
         <v>91.5</v>
       </c>
       <c r="B158" s="19">
@@ -9846,7 +9889,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="35" t="n">
+      <c r="A159" s="36" t="n">
         <v>92</v>
       </c>
       <c r="B159" s="19">
@@ -9915,7 +9958,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="35" t="n">
+      <c r="A160" s="36" t="n">
         <v>92.5</v>
       </c>
       <c r="B160" s="19">
@@ -9984,7 +10027,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="35" t="n">
+      <c r="A161" s="36" t="n">
         <v>93</v>
       </c>
       <c r="B161" s="19">
@@ -10053,7 +10096,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="35" t="n">
+      <c r="A162" s="36" t="n">
         <v>93.5</v>
       </c>
       <c r="B162" s="19">
@@ -10122,7 +10165,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="35" t="n">
+      <c r="A163" s="36" t="n">
         <v>94</v>
       </c>
       <c r="B163" s="19">
@@ -10191,7 +10234,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="35" t="n">
+      <c r="A164" s="36" t="n">
         <v>94.5</v>
       </c>
       <c r="B164" s="19">
@@ -10260,7 +10303,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="35" t="n">
+      <c r="A165" s="36" t="n">
         <v>95</v>
       </c>
       <c r="B165" s="19">
@@ -10329,7 +10372,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="35" t="n">
+      <c r="A166" s="36" t="n">
         <v>95.5</v>
       </c>
       <c r="B166" s="19">
@@ -10398,7 +10441,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="35" t="n">
+      <c r="A167" s="36" t="n">
         <v>96</v>
       </c>
       <c r="B167" s="19">
@@ -10467,7 +10510,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="35" t="n">
+      <c r="A168" s="36" t="n">
         <v>96.5</v>
       </c>
       <c r="B168" s="19">
@@ -10536,7 +10579,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="35" t="n">
+      <c r="A169" s="36" t="n">
         <v>97</v>
       </c>
       <c r="B169" s="19">
@@ -10605,7 +10648,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="35" t="n">
+      <c r="A170" s="36" t="n">
         <v>97.5</v>
       </c>
       <c r="B170" s="19">
@@ -10674,7 +10717,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="35" t="n">
+      <c r="A171" s="36" t="n">
         <v>98</v>
       </c>
       <c r="B171" s="19">
@@ -10743,7 +10786,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="35" t="n">
+      <c r="A172" s="36" t="n">
         <v>98.5</v>
       </c>
       <c r="B172" s="19">
@@ -10812,7 +10855,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="35" t="n">
+      <c r="A173" s="36" t="n">
         <v>99</v>
       </c>
       <c r="B173" s="19">
@@ -10881,7 +10924,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="35" t="n">
+      <c r="A174" s="36" t="n">
         <v>99.5</v>
       </c>
       <c r="B174" s="19">
@@ -10950,7 +10993,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="35" t="n">
+      <c r="A175" s="36" t="n">
         <v>100</v>
       </c>
       <c r="B175" s="19">
@@ -11019,7 +11062,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="35" t="n">
+      <c r="A176" s="36" t="n">
         <v>100.5</v>
       </c>
       <c r="B176" s="19">
@@ -11088,7 +11131,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="35" t="n">
+      <c r="A177" s="36" t="n">
         <v>101</v>
       </c>
       <c r="B177" s="19">
@@ -11157,7 +11200,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="35" t="n">
+      <c r="A178" s="36" t="n">
         <v>101.5</v>
       </c>
       <c r="B178" s="19">
@@ -11226,7 +11269,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="35" t="n">
+      <c r="A179" s="36" t="n">
         <v>102</v>
       </c>
       <c r="B179" s="19">
@@ -11295,7 +11338,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="35" t="n">
+      <c r="A180" s="36" t="n">
         <v>102.5</v>
       </c>
       <c r="B180" s="19">
@@ -11364,7 +11407,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="35" t="n">
+      <c r="A181" s="36" t="n">
         <v>103</v>
       </c>
       <c r="B181" s="19">
@@ -11433,7 +11476,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="35" t="n">
+      <c r="A182" s="36" t="n">
         <v>103.5</v>
       </c>
       <c r="B182" s="19">
@@ -11502,7 +11545,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="35" t="n">
+      <c r="A183" s="36" t="n">
         <v>104</v>
       </c>
       <c r="B183" s="19">
@@ -11571,7 +11614,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="35" t="n">
+      <c r="A184" s="36" t="n">
         <v>104.5</v>
       </c>
       <c r="B184" s="19">
@@ -11640,7 +11683,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="35" t="n">
+      <c r="A185" s="36" t="n">
         <v>105</v>
       </c>
       <c r="B185" s="19">
@@ -11709,7 +11752,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="35" t="n">
+      <c r="A186" s="36" t="n">
         <v>105.5</v>
       </c>
       <c r="B186" s="19">
@@ -11778,7 +11821,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="35" t="n">
+      <c r="A187" s="36" t="n">
         <v>106</v>
       </c>
       <c r="B187" s="19">
@@ -11847,7 +11890,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="35" t="n">
+      <c r="A188" s="36" t="n">
         <v>106.5</v>
       </c>
       <c r="B188" s="19">
@@ -11916,7 +11959,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="35" t="n">
+      <c r="A189" s="36" t="n">
         <v>107</v>
       </c>
       <c r="B189" s="19">
@@ -11985,7 +12028,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="35" t="n">
+      <c r="A190" s="36" t="n">
         <v>107.5</v>
       </c>
       <c r="B190" s="19">
@@ -12054,7 +12097,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="35" t="n">
+      <c r="A191" s="36" t="n">
         <v>108</v>
       </c>
       <c r="B191" s="19">
@@ -12123,7 +12166,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="35" t="n">
+      <c r="A192" s="36" t="n">
         <v>108.5</v>
       </c>
       <c r="B192" s="19">
@@ -12192,7 +12235,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="35" t="n">
+      <c r="A193" s="36" t="n">
         <v>109</v>
       </c>
       <c r="B193" s="19">
@@ -12261,7 +12304,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="35" t="n">
+      <c r="A194" s="36" t="n">
         <v>109.5</v>
       </c>
       <c r="B194" s="19">
@@ -12330,7 +12373,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="35" t="n">
+      <c r="A195" s="36" t="n">
         <v>110</v>
       </c>
       <c r="B195" s="19">
@@ -12399,7 +12442,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="35" t="n">
+      <c r="A196" s="36" t="n">
         <v>110.5</v>
       </c>
       <c r="B196" s="19">
@@ -12468,7 +12511,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="35" t="n">
+      <c r="A197" s="36" t="n">
         <v>111</v>
       </c>
       <c r="B197" s="19">
@@ -12537,7 +12580,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="35" t="n">
+      <c r="A198" s="36" t="n">
         <v>111.5</v>
       </c>
       <c r="B198" s="19">
@@ -12606,7 +12649,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="35" t="n">
+      <c r="A199" s="36" t="n">
         <v>112</v>
       </c>
       <c r="B199" s="19">
@@ -12675,7 +12718,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="35" t="n">
+      <c r="A200" s="36" t="n">
         <v>112.5</v>
       </c>
       <c r="B200" s="19">
@@ -12744,7 +12787,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="35" t="n">
+      <c r="A201" s="36" t="n">
         <v>113</v>
       </c>
       <c r="B201" s="19">
@@ -12813,7 +12856,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="35" t="n">
+      <c r="A202" s="36" t="n">
         <v>113.5</v>
       </c>
       <c r="B202" s="19">
@@ -12882,7 +12925,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="35" t="n">
+      <c r="A203" s="36" t="n">
         <v>114</v>
       </c>
       <c r="B203" s="19">
@@ -12951,7 +12994,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="35" t="n">
+      <c r="A204" s="36" t="n">
         <v>114.5</v>
       </c>
       <c r="B204" s="19">
@@ -13020,7 +13063,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="35" t="n">
+      <c r="A205" s="36" t="n">
         <v>115</v>
       </c>
       <c r="B205" s="19">
@@ -13089,7 +13132,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="35" t="n">
+      <c r="A206" s="36" t="n">
         <v>115.5</v>
       </c>
       <c r="B206" s="19">
@@ -13158,7 +13201,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="35" t="n">
+      <c r="A207" s="36" t="n">
         <v>116</v>
       </c>
       <c r="B207" s="19">
@@ -13227,7 +13270,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="35" t="n">
+      <c r="A208" s="36" t="n">
         <v>116.5</v>
       </c>
       <c r="B208" s="19">
@@ -13296,7 +13339,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="35" t="n">
+      <c r="A209" s="36" t="n">
         <v>117</v>
       </c>
       <c r="B209" s="19">
@@ -13365,7 +13408,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="35" t="n">
+      <c r="A210" s="36" t="n">
         <v>117.5</v>
       </c>
       <c r="B210" s="19">
@@ -13434,7 +13477,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="35" t="n">
+      <c r="A211" s="36" t="n">
         <v>118</v>
       </c>
       <c r="B211" s="19">
@@ -13503,7 +13546,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="35" t="n">
+      <c r="A212" s="36" t="n">
         <v>118.5</v>
       </c>
       <c r="B212" s="19">
@@ -13572,7 +13615,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="35" t="n">
+      <c r="A213" s="36" t="n">
         <v>119</v>
       </c>
       <c r="B213" s="19">
@@ -13641,7 +13684,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="35" t="n">
+      <c r="A214" s="36" t="n">
         <v>119.5</v>
       </c>
       <c r="B214" s="19">
@@ -13710,7 +13753,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="35" t="n">
+      <c r="A215" s="36" t="n">
         <v>120</v>
       </c>
       <c r="B215" s="19">
@@ -13779,7 +13822,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="35" t="n">
+      <c r="A216" s="36" t="n">
         <v>120.5</v>
       </c>
       <c r="B216" s="19">
@@ -13848,7 +13891,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="35" t="n">
+      <c r="A217" s="36" t="n">
         <v>121</v>
       </c>
       <c r="B217" s="19">
@@ -13917,7 +13960,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="35" t="n">
+      <c r="A218" s="36" t="n">
         <v>121.5</v>
       </c>
       <c r="B218" s="19">
@@ -13986,7 +14029,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="35" t="n">
+      <c r="A219" s="36" t="n">
         <v>122</v>
       </c>
       <c r="B219" s="19">
@@ -14055,7 +14098,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="35" t="n">
+      <c r="A220" s="36" t="n">
         <v>122.5</v>
       </c>
       <c r="B220" s="19">
@@ -14124,7 +14167,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="35" t="n">
+      <c r="A221" s="36" t="n">
         <v>123</v>
       </c>
       <c r="B221" s="19">
@@ -14193,7 +14236,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="35" t="n">
+      <c r="A222" s="36" t="n">
         <v>123.5</v>
       </c>
       <c r="B222" s="19">
@@ -14262,7 +14305,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="35" t="n">
+      <c r="A223" s="36" t="n">
         <v>124</v>
       </c>
       <c r="B223" s="19">
@@ -14331,7 +14374,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="35" t="n">
+      <c r="A224" s="36" t="n">
         <v>124.5</v>
       </c>
       <c r="B224" s="19">
@@ -14400,7 +14443,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="35" t="n">
+      <c r="A225" s="36" t="n">
         <v>125</v>
       </c>
       <c r="B225" s="19">
@@ -14469,7 +14512,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="35" t="n">
+      <c r="A226" s="36" t="n">
         <v>125.5</v>
       </c>
       <c r="B226" s="19">
@@ -14538,7 +14581,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="35" t="n">
+      <c r="A227" s="36" t="n">
         <v>126</v>
       </c>
       <c r="B227" s="19">
@@ -14607,7 +14650,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="35" t="n">
+      <c r="A228" s="36" t="n">
         <v>126.5</v>
       </c>
       <c r="B228" s="19">
@@ -14676,7 +14719,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="35" t="n">
+      <c r="A229" s="36" t="n">
         <v>127</v>
       </c>
       <c r="B229" s="19">
@@ -14745,7 +14788,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="35" t="n">
+      <c r="A230" s="36" t="n">
         <v>127.5</v>
       </c>
       <c r="B230" s="19">
@@ -14814,7 +14857,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="35" t="n">
+      <c r="A231" s="36" t="n">
         <v>128</v>
       </c>
       <c r="B231" s="19">
@@ -14883,7 +14926,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="35" t="n">
+      <c r="A232" s="36" t="n">
         <v>128.5</v>
       </c>
       <c r="B232" s="19">
@@ -14952,7 +14995,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="35" t="n">
+      <c r="A233" s="36" t="n">
         <v>129</v>
       </c>
       <c r="B233" s="19">
@@ -15021,7 +15064,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="35" t="n">
+      <c r="A234" s="36" t="n">
         <v>129.5</v>
       </c>
       <c r="B234" s="19">
@@ -15090,7 +15133,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="35" t="n">
+      <c r="A235" s="36" t="n">
         <v>130</v>
       </c>
       <c r="B235" s="19">
@@ -15159,7 +15202,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="35" t="n">
+      <c r="A236" s="36" t="n">
         <v>130.5</v>
       </c>
       <c r="B236" s="19">
@@ -15228,7 +15271,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="35" t="n">
+      <c r="A237" s="36" t="n">
         <v>131</v>
       </c>
       <c r="B237" s="19">
@@ -15297,7 +15340,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="35" t="n">
+      <c r="A238" s="36" t="n">
         <v>131.5</v>
       </c>
       <c r="B238" s="19">
@@ -15366,7 +15409,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="35" t="n">
+      <c r="A239" s="36" t="n">
         <v>132</v>
       </c>
       <c r="B239" s="19">
@@ -15435,7 +15478,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="35" t="n">
+      <c r="A240" s="36" t="n">
         <v>132.5</v>
       </c>
       <c r="B240" s="19">
@@ -15504,7 +15547,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="35" t="n">
+      <c r="A241" s="36" t="n">
         <v>133</v>
       </c>
       <c r="B241" s="19">
@@ -15573,7 +15616,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="35" t="n">
+      <c r="A242" s="36" t="n">
         <v>133.5</v>
       </c>
       <c r="B242" s="19">
@@ -15642,7 +15685,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="35" t="n">
+      <c r="A243" s="36" t="n">
         <v>134</v>
       </c>
       <c r="B243" s="19">
@@ -15711,7 +15754,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="35" t="n">
+      <c r="A244" s="36" t="n">
         <v>134.5</v>
       </c>
       <c r="B244" s="19">
@@ -15780,7 +15823,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="35" t="n">
+      <c r="A245" s="36" t="n">
         <v>135</v>
       </c>
       <c r="B245" s="19">
@@ -15849,7 +15892,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="35" t="n">
+      <c r="A246" s="36" t="n">
         <v>135.5</v>
       </c>
       <c r="B246" s="19">
@@ -15918,7 +15961,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="35" t="n">
+      <c r="A247" s="36" t="n">
         <v>136</v>
       </c>
       <c r="B247" s="19">
@@ -15987,7 +16030,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="35" t="n">
+      <c r="A248" s="36" t="n">
         <v>136.5</v>
       </c>
       <c r="B248" s="19">
@@ -16056,7 +16099,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="35" t="n">
+      <c r="A249" s="36" t="n">
         <v>137</v>
       </c>
       <c r="B249" s="19">
@@ -16125,7 +16168,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="35" t="n">
+      <c r="A250" s="36" t="n">
         <v>137.5</v>
       </c>
       <c r="B250" s="19">
@@ -16194,7 +16237,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="35" t="n">
+      <c r="A251" s="36" t="n">
         <v>138</v>
       </c>
       <c r="B251" s="19">
@@ -16263,7 +16306,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="35" t="n">
+      <c r="A252" s="36" t="n">
         <v>138.5</v>
       </c>
       <c r="B252" s="19">
@@ -16332,7 +16375,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="35" t="n">
+      <c r="A253" s="36" t="n">
         <v>139</v>
       </c>
       <c r="B253" s="19">
@@ -16401,7 +16444,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="35" t="n">
+      <c r="A254" s="36" t="n">
         <v>139.5</v>
       </c>
       <c r="B254" s="19">
@@ -16470,7 +16513,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="35" t="n">
+      <c r="A255" s="36" t="n">
         <v>140</v>
       </c>
       <c r="B255" s="19">

--- a/bootstrap_method.xlsx
+++ b/bootstrap_method.xlsx
@@ -110,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -142,7 +142,6 @@
     <xf numFmtId="167" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="170" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -278,36 +277,6 @@
           <yVal>
             <numRef>
               <f>'Flight Tests → CD0, e'!$I$32:$I$43</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <v>Linear fit (R² in B56)</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'Flight Tests → CD0, e'!$J$59:$J$60</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'Flight Tests → CD0, e'!$I$59:$I$60</f>
             </numRef>
           </yVal>
         </ser>
@@ -2940,31 +2909,6 @@
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="H59" s="25" t="inlineStr">
-        <is>
-          <t>Fit line:</t>
-        </is>
-      </c>
-      <c r="I59" s="18">
-        <f>IF(COUNT(I32:I43)&gt;1,B47*MIN(J32:J43)+B48,"")</f>
-        <v/>
-      </c>
-      <c r="J59" s="19">
-        <f>IF(COUNT(J32:J43)&gt;1,MIN(J32:J43),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60">
-      <c r="I60" s="18">
-        <f>IF(COUNT(I32:I43)&gt;1,B47*MAX(J32:J43)+B48,"")</f>
-        <v/>
-      </c>
-      <c r="J60" s="19">
-        <f>IF(COUNT(J32:J43)&gt;1,MAX(J32:J43),"")</f>
-        <v/>
-      </c>
-    </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
@@ -3506,7 +3450,7 @@
           <t>S (wing area)</t>
         </is>
       </c>
-      <c r="B5" s="26" t="n">
+      <c r="B5" s="25" t="n">
         <v>174</v>
       </c>
       <c r="C5" s="14" t="inlineStr">
@@ -3526,7 +3470,7 @@
           <t>B (wing span)</t>
         </is>
       </c>
-      <c r="B6" s="26" t="n">
+      <c r="B6" s="25" t="n">
         <v>36</v>
       </c>
       <c r="C6" s="14" t="inlineStr">
@@ -3546,7 +3490,7 @@
           <t>P0 (rated power)</t>
         </is>
       </c>
-      <c r="B7" s="26" t="n">
+      <c r="B7" s="25" t="n">
         <v>235</v>
       </c>
       <c r="C7" s="14" t="inlineStr">
@@ -3566,7 +3510,7 @@
           <t>N0 (rated RPM)</t>
         </is>
       </c>
-      <c r="B8" s="26" t="n">
+      <c r="B8" s="25" t="n">
         <v>2400</v>
       </c>
       <c r="C8" s="14" t="inlineStr">
@@ -3586,7 +3530,7 @@
           <t>d (prop diameter)</t>
         </is>
       </c>
-      <c r="B9" s="26" t="n">
+      <c r="B9" s="25" t="n">
         <v>6.83</v>
       </c>
       <c r="C9" s="14" t="inlineStr">
@@ -3657,7 +3601,7 @@
           <t>Z (fuselage dia / prop dia)</t>
         </is>
       </c>
-      <c r="B13" s="26" t="n">
+      <c r="B13" s="25" t="n">
         <v>0.6879999999999999</v>
       </c>
       <c r="C13" s="14" t="inlineStr"/>
@@ -3673,7 +3617,7 @@
           <t>Tractor? (1=yes, 0=no)</t>
         </is>
       </c>
-      <c r="B14" s="26" t="n">
+      <c r="B14" s="25" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="14" t="inlineStr"/>
@@ -3689,7 +3633,7 @@
           <t>BB (num blades)</t>
         </is>
       </c>
-      <c r="B15" s="26" t="n">
+      <c r="B15" s="25" t="n">
         <v>2</v>
       </c>
       <c r="C15" s="14" t="inlineStr"/>
@@ -3705,7 +3649,7 @@
           <t>C (power dropoff)</t>
         </is>
       </c>
-      <c r="B16" s="26" t="n">
+      <c r="B16" s="25" t="n">
         <v>0.12</v>
       </c>
       <c r="C16" s="14" t="inlineStr"/>
@@ -3757,188 +3701,188 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="27" t="inlineStr">
+      <c r="A21" s="26" t="inlineStr">
         <is>
           <t>{:S</t>
         </is>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="26">
         <f>TEXT(B5,"0.0")</f>
         <v/>
       </c>
-      <c r="C21" s="27" t="inlineStr">
+      <c r="C21" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">  ;; wing area, ft²</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="27" t="inlineStr">
+      <c r="A22" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve"> :B</t>
         </is>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="26">
         <f>TEXT(B6,"0.0")</f>
         <v/>
       </c>
-      <c r="C22" s="27" t="inlineStr">
+      <c r="C22" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">  ;; wing span, ft</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="27" t="inlineStr">
+      <c r="A23" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve"> :P0</t>
         </is>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="26">
         <f>TEXT(B7,"0.0")</f>
         <v/>
       </c>
-      <c r="C23" s="27" t="inlineStr">
+      <c r="C23" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">  ;; rated MSL power, hp</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="27" t="inlineStr">
+      <c r="A24" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve"> :N0</t>
         </is>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="26">
         <f>TEXT(B8,"0")</f>
         <v/>
       </c>
-      <c r="C24" s="27" t="inlineStr">
+      <c r="C24" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">  ;; rated RPM</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="27" t="inlineStr">
+      <c r="A25" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve"> :d</t>
         </is>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="26">
         <f>TEXT(B9,"0.000")</f>
         <v/>
       </c>
-      <c r="C25" s="27" t="inlineStr">
+      <c r="C25" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">  ;; prop diameter, ft</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="27" t="inlineStr">
+      <c r="A26" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve"> :CD0</t>
         </is>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="26">
         <f>TEXT(B10,"0.00000")</f>
         <v/>
       </c>
-      <c r="C26" s="27" t="inlineStr">
+      <c r="C26" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">  ;; parasite drag coefficient</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="27" t="inlineStr">
+      <c r="A27" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve"> :e</t>
         </is>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="26">
         <f>TEXT(B11,"0.000")</f>
         <v/>
       </c>
-      <c r="C27" s="27" t="inlineStr">
+      <c r="C27" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">  ;; airplane efficiency factor</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="27" t="inlineStr">
+      <c r="A28" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve"> :TAF</t>
         </is>
       </c>
-      <c r="B28" s="27">
+      <c r="B28" s="26">
         <f>TEXT(B12,"0.0")</f>
         <v/>
       </c>
-      <c r="C28" s="27" t="inlineStr">
+      <c r="C28" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">  ;; total activity factor</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="27" t="inlineStr">
+      <c r="A29" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve"> :Z</t>
         </is>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="26">
         <f>TEXT(B13,"0.000")</f>
         <v/>
       </c>
-      <c r="C29" s="27" t="inlineStr">
+      <c r="C29" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">  ;; fuselage dia / prop dia</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="27" t="inlineStr">
+      <c r="A30" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve"> :tractor?</t>
         </is>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="26">
         <f>IF(B14=1,"true","false")</f>
         <v/>
       </c>
-      <c r="C30" s="27" t="inlineStr"/>
+      <c r="C30" s="26" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="27" t="inlineStr">
+      <c r="A31" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve"> :BB</t>
         </is>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="26">
         <f>TEXT(B15,"0")</f>
         <v/>
       </c>
-      <c r="C31" s="27" t="inlineStr">
+      <c r="C31" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">  ;; number of blades</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="27" t="inlineStr">
+      <c r="A32" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve"> :C</t>
         </is>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="26">
         <f>TEXT(B16,"0.00")</f>
         <v/>
       </c>
-      <c r="C32" s="27" t="inlineStr">
+      <c r="C32" s="26" t="inlineStr">
         <is>
           <t>}  ;; altitude power dropoff</t>
         </is>
@@ -4054,28 +3998,28 @@
           <t>(constant)</t>
         </is>
       </c>
-      <c r="C6" s="28" t="n">
+      <c r="C6" s="27" t="n">
         <v>-0.027280541925</v>
       </c>
-      <c r="D6" s="28" t="n">
+      <c r="D6" s="27" t="n">
         <v>-0.038502996895</v>
       </c>
-      <c r="E6" s="28" t="n">
+      <c r="E6" s="27" t="n">
         <v>-0.026741905</v>
       </c>
-      <c r="F6" s="28" t="n">
+      <c r="F6" s="27" t="n">
         <v>0.038100252152</v>
       </c>
-      <c r="G6" s="28" t="n">
+      <c r="G6" s="27" t="n">
         <v>0.251897476</v>
       </c>
-      <c r="H6" s="28" t="n">
+      <c r="H6" s="27" t="n">
         <v>0.140144145675</v>
       </c>
-      <c r="I6" s="28" t="n">
+      <c r="I6" s="27" t="n">
         <v>-0.70560405</v>
       </c>
-      <c r="J6" s="28" t="n">
+      <c r="J6" s="27" t="n">
         <v>-2.340532183939</v>
       </c>
     </row>
@@ -4090,28 +4034,28 @@
           <t>(h)</t>
         </is>
       </c>
-      <c r="C7" s="28" t="n">
+      <c r="C7" s="27" t="n">
         <v>1.157818942224</v>
       </c>
-      <c r="D7" s="28" t="n">
+      <c r="D7" s="27" t="n">
         <v>1.046135815788</v>
       </c>
-      <c r="E7" s="28" t="n">
+      <c r="E7" s="27" t="n">
         <v>0.7175824135</v>
       </c>
-      <c r="F7" s="28" t="n">
+      <c r="F7" s="27" t="n">
         <v>0.19952245559</v>
       </c>
-      <c r="G7" s="28" t="n">
+      <c r="G7" s="27" t="n">
         <v>-0.56166584</v>
       </c>
-      <c r="H7" s="28" t="n">
+      <c r="H7" s="27" t="n">
         <v>0.071636129794</v>
       </c>
-      <c r="I7" s="28" t="n">
+      <c r="I7" s="27" t="n">
         <v>2.868232531</v>
       </c>
-      <c r="J7" s="28" t="n">
+      <c r="J7" s="27" t="n">
         <v>7.56393789715</v>
       </c>
     </row>
@@ -4126,28 +4070,28 @@
           <t>(h²)</t>
         </is>
       </c>
-      <c r="C8" s="28" t="n">
+      <c r="C8" s="27" t="n">
         <v>-0.5489231230129999</v>
       </c>
-      <c r="D8" s="28" t="n">
+      <c r="D8" s="27" t="n">
         <v>-0.485313329667</v>
       </c>
-      <c r="E8" s="28" t="n">
+      <c r="E8" s="27" t="n">
         <v>-0.08467334999999999</v>
       </c>
-      <c r="F8" s="28" t="n">
+      <c r="F8" s="27" t="n">
         <v>0.458898025445</v>
       </c>
-      <c r="G8" s="28" t="n">
+      <c r="G8" s="27" t="n">
         <v>1.13905513</v>
       </c>
-      <c r="H8" s="28" t="n">
+      <c r="H8" s="27" t="n">
         <v>-0.057356417627</v>
       </c>
-      <c r="I8" s="28" t="n">
+      <c r="I8" s="27" t="n">
         <v>-3.651371295</v>
       </c>
-      <c r="J8" s="28" t="n">
+      <c r="J8" s="27" t="n">
         <v>-9.020964992474999</v>
       </c>
     </row>
@@ -4162,28 +4106,28 @@
           <t>(h³)</t>
         </is>
       </c>
-      <c r="C9" s="28" t="n">
+      <c r="C9" s="27" t="n">
         <v>0.038551650269</v>
       </c>
-      <c r="D9" s="28" t="n">
+      <c r="D9" s="27" t="n">
         <v>0.130100232509</v>
       </c>
-      <c r="E9" s="28" t="n">
+      <c r="E9" s="27" t="n">
         <v>-0.07445168000000001</v>
       </c>
-      <c r="F9" s="28" t="n">
+      <c r="F9" s="27" t="n">
         <v>-0.318992736679</v>
       </c>
-      <c r="G9" s="28" t="n">
+      <c r="G9" s="27" t="n">
         <v>-0.60219333</v>
       </c>
-      <c r="H9" s="28" t="n">
+      <c r="H9" s="27" t="n">
         <v>0.276378945894</v>
       </c>
-      <c r="I9" s="28" t="n">
+      <c r="I9" s="27" t="n">
         <v>2.487262933</v>
       </c>
-      <c r="J9" s="28" t="n">
+      <c r="J9" s="27" t="n">
         <v>5.550045133294</v>
       </c>
     </row>
@@ -4198,28 +4142,28 @@
           <t>(h⁴)</t>
         </is>
       </c>
-      <c r="C10" s="28" t="n">
+      <c r="C10" s="27" t="n">
         <v>0.06458055527999999</v>
       </c>
-      <c r="D10" s="28" t="n">
+      <c r="D10" s="27" t="n">
         <v>-0.027326610124</v>
       </c>
-      <c r="E10" s="28" t="n">
+      <c r="E10" s="27" t="n">
         <v>0.026437051</v>
       </c>
-      <c r="F10" s="28" t="n">
+      <c r="F10" s="27" t="n">
         <v>0.081357821405</v>
       </c>
-      <c r="G10" s="28" t="n">
+      <c r="G10" s="27" t="n">
         <v>0.144341736</v>
       </c>
-      <c r="H10" s="28" t="n">
+      <c r="H10" s="27" t="n">
         <v>-0.159843307011</v>
       </c>
-      <c r="I10" s="28" t="n">
+      <c r="I10" s="27" t="n">
         <v>-0.8634212</v>
       </c>
-      <c r="J10" s="28" t="n">
+      <c r="J10" s="27" t="n">
         <v>-1.793776917489</v>
       </c>
     </row>
@@ -4234,28 +4178,28 @@
           <t>(h⁵)</t>
         </is>
       </c>
-      <c r="C11" s="28" t="n">
+      <c r="C11" s="27" t="n">
         <v>-0.026301243311</v>
       </c>
-      <c r="D11" s="28" t="n">
+      <c r="D11" s="27" t="n">
         <v>0.003139013961</v>
       </c>
-      <c r="E11" s="28" t="n">
+      <c r="E11" s="27" t="n">
         <v>-0.003537565</v>
       </c>
-      <c r="F11" s="28" t="n">
+      <c r="F11" s="27" t="n">
         <v>-0.009083801712</v>
       </c>
-      <c r="G11" s="28" t="n">
+      <c r="G11" s="27" t="n">
         <v>-0.01619473</v>
       </c>
-      <c r="H11" s="28" t="n">
+      <c r="H11" s="27" t="n">
         <v>0.034239846258</v>
       </c>
-      <c r="I11" s="28" t="n">
+      <c r="I11" s="27" t="n">
         <v>0.1464783315</v>
       </c>
-      <c r="J11" s="28" t="n">
+      <c r="J11" s="27" t="n">
         <v>0.291020480454</v>
       </c>
     </row>
@@ -4270,28 +4214,28 @@
           <t>(h⁶)</t>
         </is>
       </c>
-      <c r="C12" s="28" t="n">
+      <c r="C12" s="27" t="n">
         <v>0.003017419881</v>
       </c>
-      <c r="D12" s="28" t="n">
+      <c r="D12" s="27" t="n">
         <v>-0.000131566345</v>
       </c>
-      <c r="E12" s="28" t="n">
+      <c r="E12" s="27" t="n">
         <v>0.000177733</v>
       </c>
-      <c r="F12" s="28" t="n">
+      <c r="F12" s="27" t="n">
         <v>0.000350613126</v>
       </c>
-      <c r="G12" s="28" t="n">
+      <c r="G12" s="27" t="n">
         <v>0.000664038</v>
       </c>
-      <c r="H12" s="28" t="n">
+      <c r="H12" s="27" t="n">
         <v>-0.002573002786</v>
       </c>
-      <c r="I12" s="28" t="n">
+      <c r="I12" s="27" t="n">
         <v>-0.009686854999999999</v>
       </c>
-      <c r="J12" s="28" t="n">
+      <c r="J12" s="27" t="n">
         <v>-0.018743169313</v>
       </c>
     </row>
@@ -4411,7 +4355,7 @@
           <t>N0 (rated RPM)</t>
         </is>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="28">
         <f>'Data Plate'!B8</f>
         <v/>
       </c>
@@ -4487,7 +4431,7 @@
           <t>Tractor? (1=yes, 0=no)</t>
         </is>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="28">
         <f>'Data Plate'!B14</f>
         <v/>
       </c>
@@ -4498,7 +4442,7 @@
           <t>BB (num blades)</t>
         </is>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="28">
         <f>'Data Plate'!B15</f>
         <v/>
       </c>
@@ -4532,7 +4476,7 @@
           <t>W (gross weight)</t>
         </is>
       </c>
-      <c r="B33" s="30" t="n">
+      <c r="B33" s="29" t="n">
         <v>3100</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -4547,7 +4491,7 @@
           <t>h (density alt)</t>
         </is>
       </c>
-      <c r="B34" s="31" t="n">
+      <c r="B34" s="30" t="n">
         <v>8000</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -4562,7 +4506,7 @@
           <t>N (RPM)</t>
         </is>
       </c>
-      <c r="B35" s="31" t="n">
+      <c r="B35" s="30" t="n">
         <v>2300</v>
       </c>
     </row>
@@ -4572,7 +4516,7 @@
           <t>% Power (0–1)</t>
         </is>
       </c>
-      <c r="B36" s="26" t="n">
+      <c r="B36" s="25" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -4744,7 +4688,7 @@
           <t>GAGPC bracket idx</t>
         </is>
       </c>
-      <c r="B49" s="32">
+      <c r="B49" s="31">
         <f>MIN(MATCH(B48,$C$5:$J$5,1),7)</f>
         <v/>
       </c>
@@ -4957,7 +4901,7 @@
           <t>σ</t>
         </is>
       </c>
-      <c r="B64" s="33" t="n">
+      <c r="B64" s="32" t="n">
         <v>0.786</v>
       </c>
       <c r="C64" s="15">
@@ -4975,7 +4919,7 @@
           <t>ρ</t>
         </is>
       </c>
-      <c r="B65" s="34" t="n">
+      <c r="B65" s="33" t="n">
         <v>0.001868</v>
       </c>
       <c r="C65" s="20">
@@ -4993,7 +4937,7 @@
           <t>φ</t>
         </is>
       </c>
-      <c r="B66" s="33" t="n">
+      <c r="B66" s="32" t="n">
         <v>0.7568</v>
       </c>
       <c r="C66" s="15">
@@ -5011,7 +4955,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="B67" s="33" t="n">
+      <c r="B67" s="32" t="n">
         <v>0.2088</v>
       </c>
       <c r="C67" s="15">
@@ -5029,7 +4973,7 @@
           <t>SDF</t>
         </is>
       </c>
-      <c r="B68" s="35" t="n">
+      <c r="B68" s="34" t="n">
         <v>0.91</v>
       </c>
       <c r="C68" s="18">
@@ -5059,7 +5003,7 @@
           <t>η (eta)</t>
         </is>
       </c>
-      <c r="B71" s="35" t="n">
+      <c r="B71" s="34" t="n">
         <v>0.617</v>
       </c>
       <c r="C71" s="18">
@@ -5149,7 +5093,7 @@
           <t>ROC</t>
         </is>
       </c>
-      <c r="B76" s="36" t="n">
+      <c r="B76" s="35" t="n">
         <v>273.23</v>
       </c>
       <c r="C76" s="19">
@@ -5167,7 +5111,7 @@
           <t>ROS</t>
         </is>
       </c>
-      <c r="B77" s="36" t="n">
+      <c r="B77" s="35" t="n">
         <v>729.37</v>
       </c>
       <c r="C77" s="19">
@@ -5185,7 +5129,7 @@
           <t>AOG</t>
         </is>
       </c>
-      <c r="B78" s="35" t="n">
+      <c r="B78" s="34" t="n">
         <v>6.109</v>
       </c>
       <c r="C78" s="18">
@@ -5210,7 +5154,7 @@
           <t>Vy KCAS</t>
         </is>
       </c>
-      <c r="B81" s="36" t="n">
+      <c r="B81" s="35" t="n">
         <v>77</v>
       </c>
       <c r="C81" s="19">
@@ -5228,7 +5172,7 @@
           <t>Vy ROC</t>
         </is>
       </c>
-      <c r="B82" s="36" t="n">
+      <c r="B82" s="35" t="n">
         <v>371.7</v>
       </c>
       <c r="C82" s="19">
@@ -5246,7 +5190,7 @@
           <t>Vx KCAS</t>
         </is>
       </c>
-      <c r="B83" s="36" t="n">
+      <c r="B83" s="35" t="n">
         <v>69.5</v>
       </c>
       <c r="C83" s="19">
@@ -5282,7 +5226,7 @@
           <t>Vbg KCAS</t>
         </is>
       </c>
-      <c r="B85" s="36" t="n">
+      <c r="B85" s="35" t="n">
         <v>87</v>
       </c>
       <c r="C85" s="19">
@@ -5318,7 +5262,7 @@
           <t>Vmd KCAS</t>
         </is>
       </c>
-      <c r="B87" s="36" t="n">
+      <c r="B87" s="35" t="n">
         <v>66</v>
       </c>
       <c r="C87" s="19">
@@ -5336,7 +5280,7 @@
           <t>Vmd ROS</t>
         </is>
       </c>
-      <c r="B88" s="36" t="n">
+      <c r="B88" s="35" t="n">
         <v>719.9</v>
       </c>
       <c r="C88" s="19">
@@ -5354,7 +5298,7 @@
           <t>VM KCAS</t>
         </is>
       </c>
-      <c r="B89" s="36" t="n">
+      <c r="B89" s="35" t="n">
         <v>111.5</v>
       </c>
       <c r="C89" s="19">
@@ -5473,7 +5417,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="36" t="n">
+      <c r="A95" s="35" t="n">
         <v>60</v>
       </c>
       <c r="B95" s="19">
@@ -5542,7 +5486,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="36" t="n">
+      <c r="A96" s="35" t="n">
         <v>60.5</v>
       </c>
       <c r="B96" s="19">
@@ -5611,7 +5555,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="36" t="n">
+      <c r="A97" s="35" t="n">
         <v>61</v>
       </c>
       <c r="B97" s="19">
@@ -5680,7 +5624,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="36" t="n">
+      <c r="A98" s="35" t="n">
         <v>61.5</v>
       </c>
       <c r="B98" s="19">
@@ -5749,7 +5693,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="36" t="n">
+      <c r="A99" s="35" t="n">
         <v>62</v>
       </c>
       <c r="B99" s="19">
@@ -5818,7 +5762,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="36" t="n">
+      <c r="A100" s="35" t="n">
         <v>62.5</v>
       </c>
       <c r="B100" s="19">
@@ -5887,7 +5831,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="36" t="n">
+      <c r="A101" s="35" t="n">
         <v>63</v>
       </c>
       <c r="B101" s="19">
@@ -5956,7 +5900,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="36" t="n">
+      <c r="A102" s="35" t="n">
         <v>63.5</v>
       </c>
       <c r="B102" s="19">
@@ -6025,7 +5969,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="36" t="n">
+      <c r="A103" s="35" t="n">
         <v>64</v>
       </c>
       <c r="B103" s="19">
@@ -6094,7 +6038,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="36" t="n">
+      <c r="A104" s="35" t="n">
         <v>64.5</v>
       </c>
       <c r="B104" s="19">
@@ -6163,7 +6107,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="36" t="n">
+      <c r="A105" s="35" t="n">
         <v>65</v>
       </c>
       <c r="B105" s="19">
@@ -6232,7 +6176,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="36" t="n">
+      <c r="A106" s="35" t="n">
         <v>65.5</v>
       </c>
       <c r="B106" s="19">
@@ -6301,7 +6245,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="36" t="n">
+      <c r="A107" s="35" t="n">
         <v>66</v>
       </c>
       <c r="B107" s="19">
@@ -6370,7 +6314,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="36" t="n">
+      <c r="A108" s="35" t="n">
         <v>66.5</v>
       </c>
       <c r="B108" s="19">
@@ -6439,7 +6383,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="36" t="n">
+      <c r="A109" s="35" t="n">
         <v>67</v>
       </c>
       <c r="B109" s="19">
@@ -6508,7 +6452,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="36" t="n">
+      <c r="A110" s="35" t="n">
         <v>67.5</v>
       </c>
       <c r="B110" s="19">
@@ -6577,7 +6521,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="36" t="n">
+      <c r="A111" s="35" t="n">
         <v>68</v>
       </c>
       <c r="B111" s="19">
@@ -6646,7 +6590,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="36" t="n">
+      <c r="A112" s="35" t="n">
         <v>68.5</v>
       </c>
       <c r="B112" s="19">
@@ -6715,7 +6659,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="36" t="n">
+      <c r="A113" s="35" t="n">
         <v>69</v>
       </c>
       <c r="B113" s="19">
@@ -6784,7 +6728,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="36" t="n">
+      <c r="A114" s="35" t="n">
         <v>69.5</v>
       </c>
       <c r="B114" s="19">
@@ -6853,7 +6797,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="36" t="n">
+      <c r="A115" s="35" t="n">
         <v>70</v>
       </c>
       <c r="B115" s="19">
@@ -6922,7 +6866,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="36" t="n">
+      <c r="A116" s="35" t="n">
         <v>70.5</v>
       </c>
       <c r="B116" s="19">
@@ -6991,7 +6935,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="36" t="n">
+      <c r="A117" s="35" t="n">
         <v>71</v>
       </c>
       <c r="B117" s="19">
@@ -7060,7 +7004,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="36" t="n">
+      <c r="A118" s="35" t="n">
         <v>71.5</v>
       </c>
       <c r="B118" s="19">
@@ -7129,7 +7073,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="36" t="n">
+      <c r="A119" s="35" t="n">
         <v>72</v>
       </c>
       <c r="B119" s="19">
@@ -7198,7 +7142,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="36" t="n">
+      <c r="A120" s="35" t="n">
         <v>72.5</v>
       </c>
       <c r="B120" s="19">
@@ -7267,7 +7211,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="36" t="n">
+      <c r="A121" s="35" t="n">
         <v>73</v>
       </c>
       <c r="B121" s="19">
@@ -7336,7 +7280,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="36" t="n">
+      <c r="A122" s="35" t="n">
         <v>73.5</v>
       </c>
       <c r="B122" s="19">
@@ -7405,7 +7349,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="36" t="n">
+      <c r="A123" s="35" t="n">
         <v>74</v>
       </c>
       <c r="B123" s="19">
@@ -7474,7 +7418,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="36" t="n">
+      <c r="A124" s="35" t="n">
         <v>74.5</v>
       </c>
       <c r="B124" s="19">
@@ -7543,7 +7487,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="36" t="n">
+      <c r="A125" s="35" t="n">
         <v>75</v>
       </c>
       <c r="B125" s="19">
@@ -7612,7 +7556,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="36" t="n">
+      <c r="A126" s="35" t="n">
         <v>75.5</v>
       </c>
       <c r="B126" s="19">
@@ -7681,7 +7625,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="36" t="n">
+      <c r="A127" s="35" t="n">
         <v>76</v>
       </c>
       <c r="B127" s="19">
@@ -7750,7 +7694,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="36" t="n">
+      <c r="A128" s="35" t="n">
         <v>76.5</v>
       </c>
       <c r="B128" s="19">
@@ -7819,7 +7763,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="36" t="n">
+      <c r="A129" s="35" t="n">
         <v>77</v>
       </c>
       <c r="B129" s="19">
@@ -7888,7 +7832,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="36" t="n">
+      <c r="A130" s="35" t="n">
         <v>77.5</v>
       </c>
       <c r="B130" s="19">
@@ -7957,7 +7901,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="36" t="n">
+      <c r="A131" s="35" t="n">
         <v>78</v>
       </c>
       <c r="B131" s="19">
@@ -8026,7 +7970,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="36" t="n">
+      <c r="A132" s="35" t="n">
         <v>78.5</v>
       </c>
       <c r="B132" s="19">
@@ -8095,7 +8039,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="36" t="n">
+      <c r="A133" s="35" t="n">
         <v>79</v>
       </c>
       <c r="B133" s="19">
@@ -8164,7 +8108,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="36" t="n">
+      <c r="A134" s="35" t="n">
         <v>79.5</v>
       </c>
       <c r="B134" s="19">
@@ -8233,7 +8177,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="36" t="n">
+      <c r="A135" s="35" t="n">
         <v>80</v>
       </c>
       <c r="B135" s="19">
@@ -8302,7 +8246,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="36" t="n">
+      <c r="A136" s="35" t="n">
         <v>80.5</v>
       </c>
       <c r="B136" s="19">
@@ -8371,7 +8315,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="36" t="n">
+      <c r="A137" s="35" t="n">
         <v>81</v>
       </c>
       <c r="B137" s="19">
@@ -8440,7 +8384,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="36" t="n">
+      <c r="A138" s="35" t="n">
         <v>81.5</v>
       </c>
       <c r="B138" s="19">
@@ -8509,7 +8453,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="36" t="n">
+      <c r="A139" s="35" t="n">
         <v>82</v>
       </c>
       <c r="B139" s="19">
@@ -8578,7 +8522,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="36" t="n">
+      <c r="A140" s="35" t="n">
         <v>82.5</v>
       </c>
       <c r="B140" s="19">
@@ -8647,7 +8591,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="36" t="n">
+      <c r="A141" s="35" t="n">
         <v>83</v>
       </c>
       <c r="B141" s="19">
@@ -8716,7 +8660,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="36" t="n">
+      <c r="A142" s="35" t="n">
         <v>83.5</v>
       </c>
       <c r="B142" s="19">
@@ -8785,7 +8729,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="36" t="n">
+      <c r="A143" s="35" t="n">
         <v>84</v>
       </c>
       <c r="B143" s="19">
@@ -8854,7 +8798,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="36" t="n">
+      <c r="A144" s="35" t="n">
         <v>84.5</v>
       </c>
       <c r="B144" s="19">
@@ -8923,7 +8867,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="36" t="n">
+      <c r="A145" s="35" t="n">
         <v>85</v>
       </c>
       <c r="B145" s="19">
@@ -8992,7 +8936,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="36" t="n">
+      <c r="A146" s="35" t="n">
         <v>85.5</v>
       </c>
       <c r="B146" s="19">
@@ -9061,7 +9005,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="36" t="n">
+      <c r="A147" s="35" t="n">
         <v>86</v>
       </c>
       <c r="B147" s="19">
@@ -9130,7 +9074,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="36" t="n">
+      <c r="A148" s="35" t="n">
         <v>86.5</v>
       </c>
       <c r="B148" s="19">
@@ -9199,7 +9143,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="36" t="n">
+      <c r="A149" s="35" t="n">
         <v>87</v>
       </c>
       <c r="B149" s="19">
@@ -9268,7 +9212,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="36" t="n">
+      <c r="A150" s="35" t="n">
         <v>87.5</v>
       </c>
       <c r="B150" s="19">
@@ -9337,7 +9281,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="36" t="n">
+      <c r="A151" s="35" t="n">
         <v>88</v>
       </c>
       <c r="B151" s="19">
@@ -9406,7 +9350,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="36" t="n">
+      <c r="A152" s="35" t="n">
         <v>88.5</v>
       </c>
       <c r="B152" s="19">
@@ -9475,7 +9419,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="36" t="n">
+      <c r="A153" s="35" t="n">
         <v>89</v>
       </c>
       <c r="B153" s="19">
@@ -9544,7 +9488,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="36" t="n">
+      <c r="A154" s="35" t="n">
         <v>89.5</v>
       </c>
       <c r="B154" s="19">
@@ -9613,7 +9557,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="36" t="n">
+      <c r="A155" s="35" t="n">
         <v>90</v>
       </c>
       <c r="B155" s="19">
@@ -9682,7 +9626,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="36" t="n">
+      <c r="A156" s="35" t="n">
         <v>90.5</v>
       </c>
       <c r="B156" s="19">
@@ -9751,7 +9695,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="36" t="n">
+      <c r="A157" s="35" t="n">
         <v>91</v>
       </c>
       <c r="B157" s="19">
@@ -9820,7 +9764,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="36" t="n">
+      <c r="A158" s="35" t="n">
         <v>91.5</v>
       </c>
       <c r="B158" s="19">
@@ -9889,7 +9833,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="36" t="n">
+      <c r="A159" s="35" t="n">
         <v>92</v>
       </c>
       <c r="B159" s="19">
@@ -9958,7 +9902,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="36" t="n">
+      <c r="A160" s="35" t="n">
         <v>92.5</v>
       </c>
       <c r="B160" s="19">
@@ -10027,7 +9971,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="36" t="n">
+      <c r="A161" s="35" t="n">
         <v>93</v>
       </c>
       <c r="B161" s="19">
@@ -10096,7 +10040,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="36" t="n">
+      <c r="A162" s="35" t="n">
         <v>93.5</v>
       </c>
       <c r="B162" s="19">
@@ -10165,7 +10109,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="36" t="n">
+      <c r="A163" s="35" t="n">
         <v>94</v>
       </c>
       <c r="B163" s="19">
@@ -10234,7 +10178,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="36" t="n">
+      <c r="A164" s="35" t="n">
         <v>94.5</v>
       </c>
       <c r="B164" s="19">
@@ -10303,7 +10247,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="36" t="n">
+      <c r="A165" s="35" t="n">
         <v>95</v>
       </c>
       <c r="B165" s="19">
@@ -10372,7 +10316,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="36" t="n">
+      <c r="A166" s="35" t="n">
         <v>95.5</v>
       </c>
       <c r="B166" s="19">
@@ -10441,7 +10385,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="36" t="n">
+      <c r="A167" s="35" t="n">
         <v>96</v>
       </c>
       <c r="B167" s="19">
@@ -10510,7 +10454,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="36" t="n">
+      <c r="A168" s="35" t="n">
         <v>96.5</v>
       </c>
       <c r="B168" s="19">
@@ -10579,7 +10523,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="36" t="n">
+      <c r="A169" s="35" t="n">
         <v>97</v>
       </c>
       <c r="B169" s="19">
@@ -10648,7 +10592,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="36" t="n">
+      <c r="A170" s="35" t="n">
         <v>97.5</v>
       </c>
       <c r="B170" s="19">
@@ -10717,7 +10661,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="36" t="n">
+      <c r="A171" s="35" t="n">
         <v>98</v>
       </c>
       <c r="B171" s="19">
@@ -10786,7 +10730,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="36" t="n">
+      <c r="A172" s="35" t="n">
         <v>98.5</v>
       </c>
       <c r="B172" s="19">
@@ -10855,7 +10799,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="36" t="n">
+      <c r="A173" s="35" t="n">
         <v>99</v>
       </c>
       <c r="B173" s="19">
@@ -10924,7 +10868,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="36" t="n">
+      <c r="A174" s="35" t="n">
         <v>99.5</v>
       </c>
       <c r="B174" s="19">
@@ -10993,7 +10937,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="36" t="n">
+      <c r="A175" s="35" t="n">
         <v>100</v>
       </c>
       <c r="B175" s="19">
@@ -11062,7 +11006,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="36" t="n">
+      <c r="A176" s="35" t="n">
         <v>100.5</v>
       </c>
       <c r="B176" s="19">
@@ -11131,7 +11075,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="36" t="n">
+      <c r="A177" s="35" t="n">
         <v>101</v>
       </c>
       <c r="B177" s="19">
@@ -11200,7 +11144,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="36" t="n">
+      <c r="A178" s="35" t="n">
         <v>101.5</v>
       </c>
       <c r="B178" s="19">
@@ -11269,7 +11213,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="36" t="n">
+      <c r="A179" s="35" t="n">
         <v>102</v>
       </c>
       <c r="B179" s="19">
@@ -11338,7 +11282,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="36" t="n">
+      <c r="A180" s="35" t="n">
         <v>102.5</v>
       </c>
       <c r="B180" s="19">
@@ -11407,7 +11351,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="36" t="n">
+      <c r="A181" s="35" t="n">
         <v>103</v>
       </c>
       <c r="B181" s="19">
@@ -11476,7 +11420,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="36" t="n">
+      <c r="A182" s="35" t="n">
         <v>103.5</v>
       </c>
       <c r="B182" s="19">
@@ -11545,7 +11489,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="36" t="n">
+      <c r="A183" s="35" t="n">
         <v>104</v>
       </c>
       <c r="B183" s="19">
@@ -11614,7 +11558,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="36" t="n">
+      <c r="A184" s="35" t="n">
         <v>104.5</v>
       </c>
       <c r="B184" s="19">
@@ -11683,7 +11627,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="36" t="n">
+      <c r="A185" s="35" t="n">
         <v>105</v>
       </c>
       <c r="B185" s="19">
@@ -11752,7 +11696,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="36" t="n">
+      <c r="A186" s="35" t="n">
         <v>105.5</v>
       </c>
       <c r="B186" s="19">
@@ -11821,7 +11765,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="36" t="n">
+      <c r="A187" s="35" t="n">
         <v>106</v>
       </c>
       <c r="B187" s="19">
@@ -11890,7 +11834,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="36" t="n">
+      <c r="A188" s="35" t="n">
         <v>106.5</v>
       </c>
       <c r="B188" s="19">
@@ -11959,7 +11903,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="36" t="n">
+      <c r="A189" s="35" t="n">
         <v>107</v>
       </c>
       <c r="B189" s="19">
@@ -12028,7 +11972,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="36" t="n">
+      <c r="A190" s="35" t="n">
         <v>107.5</v>
       </c>
       <c r="B190" s="19">
@@ -12097,7 +12041,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="36" t="n">
+      <c r="A191" s="35" t="n">
         <v>108</v>
       </c>
       <c r="B191" s="19">
@@ -12166,7 +12110,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="36" t="n">
+      <c r="A192" s="35" t="n">
         <v>108.5</v>
       </c>
       <c r="B192" s="19">
@@ -12235,7 +12179,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="36" t="n">
+      <c r="A193" s="35" t="n">
         <v>109</v>
       </c>
       <c r="B193" s="19">
@@ -12304,7 +12248,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="36" t="n">
+      <c r="A194" s="35" t="n">
         <v>109.5</v>
       </c>
       <c r="B194" s="19">
@@ -12373,7 +12317,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="36" t="n">
+      <c r="A195" s="35" t="n">
         <v>110</v>
       </c>
       <c r="B195" s="19">
@@ -12442,7 +12386,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="36" t="n">
+      <c r="A196" s="35" t="n">
         <v>110.5</v>
       </c>
       <c r="B196" s="19">
@@ -12511,7 +12455,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="36" t="n">
+      <c r="A197" s="35" t="n">
         <v>111</v>
       </c>
       <c r="B197" s="19">
@@ -12580,7 +12524,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="36" t="n">
+      <c r="A198" s="35" t="n">
         <v>111.5</v>
       </c>
       <c r="B198" s="19">
@@ -12649,7 +12593,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="36" t="n">
+      <c r="A199" s="35" t="n">
         <v>112</v>
       </c>
       <c r="B199" s="19">
@@ -12718,7 +12662,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="36" t="n">
+      <c r="A200" s="35" t="n">
         <v>112.5</v>
       </c>
       <c r="B200" s="19">
@@ -12787,7 +12731,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="36" t="n">
+      <c r="A201" s="35" t="n">
         <v>113</v>
       </c>
       <c r="B201" s="19">
@@ -12856,7 +12800,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="36" t="n">
+      <c r="A202" s="35" t="n">
         <v>113.5</v>
       </c>
       <c r="B202" s="19">
@@ -12925,7 +12869,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="36" t="n">
+      <c r="A203" s="35" t="n">
         <v>114</v>
       </c>
       <c r="B203" s="19">
@@ -12994,7 +12938,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="36" t="n">
+      <c r="A204" s="35" t="n">
         <v>114.5</v>
       </c>
       <c r="B204" s="19">
@@ -13063,7 +13007,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="36" t="n">
+      <c r="A205" s="35" t="n">
         <v>115</v>
       </c>
       <c r="B205" s="19">
@@ -13132,7 +13076,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="36" t="n">
+      <c r="A206" s="35" t="n">
         <v>115.5</v>
       </c>
       <c r="B206" s="19">
@@ -13201,7 +13145,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="36" t="n">
+      <c r="A207" s="35" t="n">
         <v>116</v>
       </c>
       <c r="B207" s="19">
@@ -13270,7 +13214,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="36" t="n">
+      <c r="A208" s="35" t="n">
         <v>116.5</v>
       </c>
       <c r="B208" s="19">
@@ -13339,7 +13283,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="36" t="n">
+      <c r="A209" s="35" t="n">
         <v>117</v>
       </c>
       <c r="B209" s="19">
@@ -13408,7 +13352,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="36" t="n">
+      <c r="A210" s="35" t="n">
         <v>117.5</v>
       </c>
       <c r="B210" s="19">
@@ -13477,7 +13421,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="36" t="n">
+      <c r="A211" s="35" t="n">
         <v>118</v>
       </c>
       <c r="B211" s="19">
@@ -13546,7 +13490,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="36" t="n">
+      <c r="A212" s="35" t="n">
         <v>118.5</v>
       </c>
       <c r="B212" s="19">
@@ -13615,7 +13559,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="36" t="n">
+      <c r="A213" s="35" t="n">
         <v>119</v>
       </c>
       <c r="B213" s="19">
@@ -13684,7 +13628,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="36" t="n">
+      <c r="A214" s="35" t="n">
         <v>119.5</v>
       </c>
       <c r="B214" s="19">
@@ -13753,7 +13697,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="36" t="n">
+      <c r="A215" s="35" t="n">
         <v>120</v>
       </c>
       <c r="B215" s="19">
@@ -13822,7 +13766,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="36" t="n">
+      <c r="A216" s="35" t="n">
         <v>120.5</v>
       </c>
       <c r="B216" s="19">
@@ -13891,7 +13835,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="36" t="n">
+      <c r="A217" s="35" t="n">
         <v>121</v>
       </c>
       <c r="B217" s="19">
@@ -13960,7 +13904,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="36" t="n">
+      <c r="A218" s="35" t="n">
         <v>121.5</v>
       </c>
       <c r="B218" s="19">
@@ -14029,7 +13973,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="36" t="n">
+      <c r="A219" s="35" t="n">
         <v>122</v>
       </c>
       <c r="B219" s="19">
@@ -14098,7 +14042,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="36" t="n">
+      <c r="A220" s="35" t="n">
         <v>122.5</v>
       </c>
       <c r="B220" s="19">
@@ -14167,7 +14111,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="36" t="n">
+      <c r="A221" s="35" t="n">
         <v>123</v>
       </c>
       <c r="B221" s="19">
@@ -14236,7 +14180,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="36" t="n">
+      <c r="A222" s="35" t="n">
         <v>123.5</v>
       </c>
       <c r="B222" s="19">
@@ -14305,7 +14249,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="36" t="n">
+      <c r="A223" s="35" t="n">
         <v>124</v>
       </c>
       <c r="B223" s="19">
@@ -14374,7 +14318,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="36" t="n">
+      <c r="A224" s="35" t="n">
         <v>124.5</v>
       </c>
       <c r="B224" s="19">
@@ -14443,7 +14387,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="36" t="n">
+      <c r="A225" s="35" t="n">
         <v>125</v>
       </c>
       <c r="B225" s="19">
@@ -14512,7 +14456,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="36" t="n">
+      <c r="A226" s="35" t="n">
         <v>125.5</v>
       </c>
       <c r="B226" s="19">
@@ -14581,7 +14525,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="36" t="n">
+      <c r="A227" s="35" t="n">
         <v>126</v>
       </c>
       <c r="B227" s="19">
@@ -14650,7 +14594,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="36" t="n">
+      <c r="A228" s="35" t="n">
         <v>126.5</v>
       </c>
       <c r="B228" s="19">
@@ -14719,7 +14663,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="36" t="n">
+      <c r="A229" s="35" t="n">
         <v>127</v>
       </c>
       <c r="B229" s="19">
@@ -14788,7 +14732,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="36" t="n">
+      <c r="A230" s="35" t="n">
         <v>127.5</v>
       </c>
       <c r="B230" s="19">
@@ -14857,7 +14801,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="36" t="n">
+      <c r="A231" s="35" t="n">
         <v>128</v>
       </c>
       <c r="B231" s="19">
@@ -14926,7 +14870,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="36" t="n">
+      <c r="A232" s="35" t="n">
         <v>128.5</v>
       </c>
       <c r="B232" s="19">
@@ -14995,7 +14939,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="36" t="n">
+      <c r="A233" s="35" t="n">
         <v>129</v>
       </c>
       <c r="B233" s="19">
@@ -15064,7 +15008,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="36" t="n">
+      <c r="A234" s="35" t="n">
         <v>129.5</v>
       </c>
       <c r="B234" s="19">
@@ -15133,7 +15077,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="36" t="n">
+      <c r="A235" s="35" t="n">
         <v>130</v>
       </c>
       <c r="B235" s="19">
@@ -15202,7 +15146,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="36" t="n">
+      <c r="A236" s="35" t="n">
         <v>130.5</v>
       </c>
       <c r="B236" s="19">
@@ -15271,7 +15215,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="36" t="n">
+      <c r="A237" s="35" t="n">
         <v>131</v>
       </c>
       <c r="B237" s="19">
@@ -15340,7 +15284,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="36" t="n">
+      <c r="A238" s="35" t="n">
         <v>131.5</v>
       </c>
       <c r="B238" s="19">
@@ -15409,7 +15353,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="36" t="n">
+      <c r="A239" s="35" t="n">
         <v>132</v>
       </c>
       <c r="B239" s="19">
@@ -15478,7 +15422,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="36" t="n">
+      <c r="A240" s="35" t="n">
         <v>132.5</v>
       </c>
       <c r="B240" s="19">
@@ -15547,7 +15491,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="36" t="n">
+      <c r="A241" s="35" t="n">
         <v>133</v>
       </c>
       <c r="B241" s="19">
@@ -15616,7 +15560,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="36" t="n">
+      <c r="A242" s="35" t="n">
         <v>133.5</v>
       </c>
       <c r="B242" s="19">
@@ -15685,7 +15629,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="36" t="n">
+      <c r="A243" s="35" t="n">
         <v>134</v>
       </c>
       <c r="B243" s="19">
@@ -15754,7 +15698,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="36" t="n">
+      <c r="A244" s="35" t="n">
         <v>134.5</v>
       </c>
       <c r="B244" s="19">
@@ -15823,7 +15767,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="36" t="n">
+      <c r="A245" s="35" t="n">
         <v>135</v>
       </c>
       <c r="B245" s="19">
@@ -15892,7 +15836,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="36" t="n">
+      <c r="A246" s="35" t="n">
         <v>135.5</v>
       </c>
       <c r="B246" s="19">
@@ -15961,7 +15905,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="36" t="n">
+      <c r="A247" s="35" t="n">
         <v>136</v>
       </c>
       <c r="B247" s="19">
@@ -16030,7 +15974,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="36" t="n">
+      <c r="A248" s="35" t="n">
         <v>136.5</v>
       </c>
       <c r="B248" s="19">
@@ -16099,7 +16043,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="36" t="n">
+      <c r="A249" s="35" t="n">
         <v>137</v>
       </c>
       <c r="B249" s="19">
@@ -16168,7 +16112,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="36" t="n">
+      <c r="A250" s="35" t="n">
         <v>137.5</v>
       </c>
       <c r="B250" s="19">
@@ -16237,7 +16181,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="36" t="n">
+      <c r="A251" s="35" t="n">
         <v>138</v>
       </c>
       <c r="B251" s="19">
@@ -16306,7 +16250,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="36" t="n">
+      <c r="A252" s="35" t="n">
         <v>138.5</v>
       </c>
       <c r="B252" s="19">
@@ -16375,7 +16319,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="36" t="n">
+      <c r="A253" s="35" t="n">
         <v>139</v>
       </c>
       <c r="B253" s="19">
@@ -16444,7 +16388,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="36" t="n">
+      <c r="A254" s="35" t="n">
         <v>139.5</v>
       </c>
       <c r="B254" s="19">
@@ -16513,7 +16457,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="36" t="n">
+      <c r="A255" s="35" t="n">
         <v>140</v>
       </c>
       <c r="B255" s="19">
